--- a/Assets/Resources/Excel/FFT_all.xlsx
+++ b/Assets/Resources/Excel/FFT_all.xlsx
@@ -1,157 +1,124 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="110">
   <si>
     <t>系统编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖出行</t>
+  </si>
+  <si>
+    <t>承兑行</t>
+  </si>
+  <si>
+    <t>信用证号</t>
+  </si>
+  <si>
+    <t>申请人</t>
+  </si>
+  <si>
+    <t>受益人</t>
+  </si>
+  <si>
+    <t>商品</t>
+  </si>
+  <si>
+    <t>信用证期限</t>
+  </si>
+  <si>
+    <t>发票金额</t>
+  </si>
+  <si>
+    <t>金额</t>
+  </si>
+  <si>
+    <t>余额</t>
   </si>
   <si>
     <t>起息日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>到期日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>宽限期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天数</t>
+  </si>
+  <si>
+    <t>利率</t>
+  </si>
+  <si>
+    <t>手续费率</t>
+  </si>
+  <si>
+    <t>ftp</t>
+  </si>
+  <si>
+    <t>综合利率</t>
+  </si>
+  <si>
+    <t>净收入率</t>
+  </si>
+  <si>
+    <t>利息</t>
   </si>
   <si>
     <t>手续费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>利息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卖出行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>承兑行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信用证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受益人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信用证期限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发票金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>余额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>利率</t>
-  </si>
-  <si>
-    <t>手续费率</t>
-  </si>
-  <si>
-    <t>ftp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>综合利率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>净收入率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>电报费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>费用合计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>经营净收入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>贴现金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>成交价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>开证日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>有效期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FFT063019000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>广发银行珠海分行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>浙商银行南京分行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GNLC049251806110012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RMB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>电缆、焊接钢管等设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3.55%</t>
@@ -161,23 +128,18 @@
   </si>
   <si>
     <t>FFT063019000002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>华夏福州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>民生银行南京分行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0801DLC1800169</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>售后回租（道路，管网）/南京溧水经济技术开发总公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3.45%</t>
@@ -187,208 +149,150 @@
   </si>
   <si>
     <t>FFT063019000003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>光大银行南昌分行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>KZ5002190002AA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>售后回租（办公设备）/江西枫叶园林规划工程有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0.35%</t>
   </si>
   <si>
     <t>FFT063019000004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>浙商银行成都分行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GNLC045261812040008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>电解铜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
     <t>FFT063019000005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>天府银行成都分行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DLC19651700002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>塑料制品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FFT063019000006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>恒丰银行济宁分行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DLC030320190002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>坯布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0.75%</t>
   </si>
   <si>
     <t>FFT063019000007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>KZ5002190007AA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>售后回租</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FFT063019000008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>KZ5002190009AA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FFT063019000010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>农业银行成都分行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>浙商银行重庆分行</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>GNLC112551808020007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>乙二醇、电解铜</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>3.6%</t>
   </si>
   <si>
     <t>FFT063019000009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>华夏银行福州分行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>华夏银行扬州分行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>01H69DL1900001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0.15%</t>
   </si>
   <si>
     <t>FFT063019000011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GNLC112441808010021</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3.7%</t>
   </si>
   <si>
     <t>FFT063019000012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>KZ5002190013AA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>售后回租（机械设备）/中国电建集团江西装备有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FFT063019000013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DLC19655000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>玉米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FFT063019000015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>农业银行深圳南山支行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1941DLID00000014</t>
-  </si>
-  <si>
-    <t>建筑服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FFT063019000016</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>恒丰银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>恒丰银行菏泽分行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DLC030820190001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>废钢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3.4%</t>
@@ -398,49 +302,36 @@
   </si>
   <si>
     <t>FFT063019000014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0801DLC1900018</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>液化石油气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3.31%</t>
   </si>
   <si>
     <t>FFT063019000017</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>农业银行成都金牛支行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1922DLID00000014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>热轧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FFT063019000018</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>KZ5002190017AA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RMB</t>
   </si>
   <si>
     <t>售后回租（厂房，设备）/江西森田电力设备有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3.39%</t>
@@ -450,34 +341,24 @@
   </si>
   <si>
     <t>FFT063019000019</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>KZ5002190018AA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -485,21 +366,12 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -608,144 +480,147 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="46">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -755,11 +630,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -833,6 +713,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -867,6 +748,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1042,1666 +924,1595 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W29" sqref="W29"/>
+      <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.77734375" customWidth="1"/>
-    <col min="21" max="21" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.75" style="2" customWidth="1"/>
+    <col min="21" max="21" width="16.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AA1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AB1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AC1" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="14" customFormat="1">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="10"/>
+      <c r="G2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9">
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="11">
         <v>50000000</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="10">
+      <c r="K2" s="11"/>
+      <c r="L2" s="12">
         <v>43469</v>
       </c>
-      <c r="M2" s="10">
+      <c r="M2" s="12">
         <v>43627</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="10">
         <v>0</v>
       </c>
-      <c r="O2" s="8">
-        <f t="shared" ref="O2:O20" si="0">M2-L2+N2</f>
+      <c r="O2" s="10">
+        <f t="shared" ref="O2:O19" si="0">M2-L2+N2</f>
         <v>158</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="12">
+      <c r="R2" s="14">
         <v>3.3500000000000002E-2</v>
       </c>
-      <c r="S2" s="12">
-        <f t="shared" ref="S2:S20" si="1">P2+Q2</f>
+      <c r="S2" s="14">
+        <f t="shared" ref="S2:S19" si="1">P2+Q2</f>
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="T2" s="12">
-        <f t="shared" ref="T2:T20" si="2">S2-R2</f>
+      <c r="T2" s="14">
+        <f t="shared" ref="T2:T19" si="2">S2-R2</f>
         <v>4.4999999999999971E-3</v>
       </c>
-      <c r="U2" s="9">
-        <f t="shared" ref="U2:U20" si="3">J2*P2*O2/360</f>
+      <c r="U2" s="11">
+        <f t="shared" ref="U2:U19" si="3">J2*P2*O2/360</f>
         <v>779027.77777777764</v>
       </c>
-      <c r="V2" s="9">
-        <f t="shared" ref="V2:V20" si="4">J2*Q2*O2/360</f>
+      <c r="V2" s="11">
+        <f t="shared" ref="V2:V19" si="4">J2*Q2*O2/360</f>
         <v>54861.111111111109</v>
       </c>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9">
-        <f t="shared" ref="X2:X20" si="5">U2+V2+W2</f>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11">
+        <f t="shared" ref="X2:X19" si="5">U2+V2+W2</f>
         <v>833888.88888888876</v>
       </c>
-      <c r="Y2" s="9">
-        <f t="shared" ref="Y2:Y20" si="6">J2*T2*O2/360</f>
+      <c r="Y2" s="11">
+        <f t="shared" ref="Y2:Y19" si="6">J2*T2*O2/360</f>
         <v>98749.999999999942</v>
       </c>
-      <c r="Z2" s="9">
-        <f t="shared" ref="Z2:Z20" si="7">J2-X2</f>
+      <c r="Z2" s="11">
+        <f t="shared" ref="Z2:Z19" si="7">J2-X2</f>
         <v>49166111.111111112</v>
       </c>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
     </row>
-    <row r="3" spans="1:29" s="14" customFormat="1">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="9">
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="11">
         <v>150000000</v>
       </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="10">
+      <c r="K3" s="11"/>
+      <c r="L3" s="12">
         <v>43473</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="12">
         <v>43810</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="10">
         <v>0</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O3" s="10">
         <f t="shared" si="0"/>
         <v>337</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="R3" s="12">
+      <c r="R3" s="14">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="S3" s="12">
+      <c r="S3" s="14">
         <f t="shared" si="1"/>
         <v>3.6500000000000005E-2</v>
       </c>
-      <c r="T3" s="12">
+      <c r="T3" s="14">
         <f t="shared" si="2"/>
         <v>4.0000000000000036E-3</v>
       </c>
-      <c r="U3" s="9">
-        <f t="shared" si="3"/>
-        <v>4844375</v>
-      </c>
-      <c r="V3" s="9">
+      <c r="U3" s="11">
+        <v>779027.78</v>
+      </c>
+      <c r="V3" s="11">
         <f t="shared" si="4"/>
         <v>280833.33333333331</v>
       </c>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9">
+      <c r="W3" s="11"/>
+      <c r="X3" s="11">
         <f t="shared" si="5"/>
-        <v>5125208.333333333</v>
-      </c>
-      <c r="Y3" s="9">
+        <v>1059861.1133333333</v>
+      </c>
+      <c r="Y3" s="11">
         <f t="shared" si="6"/>
         <v>561666.66666666721</v>
       </c>
-      <c r="Z3" s="9">
+      <c r="Z3" s="11">
         <f t="shared" si="7"/>
-        <v>144874791.66666666</v>
-      </c>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="13"/>
+        <v>148940138.88666666</v>
+      </c>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
     </row>
-    <row r="4" spans="1:29" s="14" customFormat="1">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16" t="s">
+      <c r="F4" s="18"/>
+      <c r="G4" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="17">
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="19">
         <v>5000000</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="10">
+      <c r="K4" s="19"/>
+      <c r="L4" s="12">
         <v>43475</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="20">
         <v>43838</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="18">
         <v>0</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="18">
         <f t="shared" si="0"/>
         <v>363</v>
       </c>
-      <c r="P4" s="19" t="s">
+      <c r="P4" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="Q4" s="19" t="s">
+      <c r="Q4" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="R4" s="20">
+      <c r="R4" s="22">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="S4" s="20">
+      <c r="S4" s="22">
         <f t="shared" si="1"/>
         <v>3.8000000000000006E-2</v>
       </c>
-      <c r="T4" s="20">
+      <c r="T4" s="22">
         <f t="shared" si="2"/>
         <v>5.5000000000000049E-3</v>
       </c>
-      <c r="U4" s="17">
+      <c r="U4" s="19">
         <f t="shared" si="3"/>
         <v>173937.5</v>
       </c>
-      <c r="V4" s="17">
+      <c r="V4" s="19">
         <f t="shared" si="4"/>
         <v>17645.833333333332</v>
       </c>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17">
+      <c r="W4" s="19"/>
+      <c r="X4" s="19">
         <f t="shared" si="5"/>
         <v>191583.33333333334</v>
       </c>
-      <c r="Y4" s="17">
+      <c r="Y4" s="19">
         <f t="shared" si="6"/>
         <v>27729.166666666693</v>
       </c>
-      <c r="Z4" s="17">
+      <c r="Z4" s="19">
         <f t="shared" si="7"/>
         <v>4808416.666666667</v>
       </c>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="13"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15"/>
     </row>
-    <row r="5" spans="1:29" s="14" customFormat="1">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8" t="s">
+      <c r="F5" s="10"/>
+      <c r="G5" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="9">
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="11">
         <v>9985000</v>
       </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="10">
+      <c r="K5" s="11"/>
+      <c r="L5" s="12">
         <v>43475</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="12">
         <v>43802</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="10">
         <v>0</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="10">
         <f t="shared" si="0"/>
         <v>327</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="R5" s="12">
+      <c r="R5" s="14">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="S5" s="12">
+      <c r="S5" s="14">
         <f t="shared" si="1"/>
         <v>3.4500000000000003E-2</v>
       </c>
-      <c r="T5" s="12">
+      <c r="T5" s="14">
         <f t="shared" si="2"/>
         <v>2.0000000000000018E-3</v>
       </c>
-      <c r="U5" s="9">
+      <c r="U5" s="11">
         <f t="shared" si="3"/>
         <v>312904.9375</v>
       </c>
-      <c r="V5" s="9">
+      <c r="V5" s="11">
         <f>J5*Q5*O5/360</f>
         <v>0</v>
       </c>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9">
+      <c r="W5" s="11"/>
+      <c r="X5" s="11">
         <f t="shared" si="5"/>
         <v>312904.9375</v>
       </c>
-      <c r="Y5" s="9">
+      <c r="Y5" s="11">
         <f t="shared" si="6"/>
         <v>18139.416666666682</v>
       </c>
-      <c r="Z5" s="9">
+      <c r="Z5" s="11">
         <f t="shared" si="7"/>
         <v>9672095.0625</v>
       </c>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="15"/>
     </row>
-    <row r="6" spans="1:29" s="30" customFormat="1">
-      <c r="A6" s="21" t="s">
+    <row r="6" spans="1:29" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21" t="s">
+      <c r="F6" s="23"/>
+      <c r="G6" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="22">
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="24">
         <v>147000000</v>
       </c>
-      <c r="K6" s="22"/>
-      <c r="L6" s="10">
+      <c r="K6" s="24"/>
+      <c r="L6" s="12">
         <v>43476</v>
       </c>
-      <c r="M6" s="24">
+      <c r="M6" s="26">
         <v>43656</v>
       </c>
-      <c r="N6" s="25">
+      <c r="N6" s="27">
         <v>0</v>
       </c>
-      <c r="O6" s="25">
+      <c r="O6" s="27">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="P6" s="26" t="s">
+      <c r="P6" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="Q6" s="26" t="s">
+      <c r="Q6" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="R6" s="27">
+      <c r="R6" s="29">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="S6" s="27">
+      <c r="S6" s="29">
         <f t="shared" si="1"/>
         <v>3.6500000000000005E-2</v>
       </c>
-      <c r="T6" s="27">
+      <c r="T6" s="29">
         <f t="shared" si="2"/>
         <v>4.0000000000000036E-3</v>
       </c>
-      <c r="U6" s="28">
+      <c r="U6" s="30">
         <f t="shared" si="3"/>
         <v>2535750</v>
       </c>
-      <c r="V6" s="28">
+      <c r="V6" s="30">
         <f t="shared" si="4"/>
         <v>147000</v>
       </c>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28">
+      <c r="W6" s="30"/>
+      <c r="X6" s="30">
         <f t="shared" si="5"/>
         <v>2682750</v>
       </c>
-      <c r="Y6" s="28">
+      <c r="Y6" s="30">
         <f t="shared" si="6"/>
         <v>294000.00000000023</v>
       </c>
-      <c r="Z6" s="28">
+      <c r="Z6" s="30">
         <f t="shared" si="7"/>
         <v>144317250</v>
       </c>
-      <c r="AA6" s="22"/>
-      <c r="AB6" s="29"/>
-      <c r="AC6" s="29"/>
+      <c r="AA6" s="24"/>
+      <c r="AB6" s="31"/>
+      <c r="AC6" s="31"/>
     </row>
-    <row r="7" spans="1:29" s="30" customFormat="1">
-      <c r="A7" s="31" t="s">
+    <row r="7" spans="1:29" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31" t="s">
+      <c r="F7" s="33"/>
+      <c r="G7" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="32">
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="34">
         <v>30000000</v>
       </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="10">
+      <c r="K7" s="34"/>
+      <c r="L7" s="12">
         <v>43476</v>
       </c>
-      <c r="M7" s="34">
+      <c r="M7" s="36">
         <v>43840</v>
       </c>
-      <c r="N7" s="35">
+      <c r="N7" s="37">
         <v>0</v>
       </c>
-      <c r="O7" s="35">
+      <c r="O7" s="37">
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="P7" s="36" t="s">
+      <c r="P7" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="Q7" s="36" t="s">
+      <c r="Q7" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="R7" s="37">
+      <c r="R7" s="39">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="S7" s="37">
+      <c r="S7" s="39">
         <f t="shared" si="1"/>
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="T7" s="37">
+      <c r="T7" s="39">
         <f t="shared" si="2"/>
         <v>9.5000000000000015E-3</v>
       </c>
-      <c r="U7" s="38">
+      <c r="U7" s="40">
         <f t="shared" si="3"/>
         <v>1046500.0000000001</v>
       </c>
-      <c r="V7" s="38">
+      <c r="V7" s="40">
         <f t="shared" si="4"/>
         <v>227500</v>
       </c>
-      <c r="W7" s="38"/>
-      <c r="X7" s="38">
+      <c r="W7" s="40"/>
+      <c r="X7" s="40">
         <f t="shared" si="5"/>
         <v>1274000</v>
       </c>
-      <c r="Y7" s="38">
+      <c r="Y7" s="40">
         <f t="shared" si="6"/>
         <v>288166.66666666669</v>
       </c>
-      <c r="Z7" s="38">
+      <c r="Z7" s="40">
         <f t="shared" si="7"/>
         <v>28726000</v>
       </c>
-      <c r="AA7" s="39"/>
-      <c r="AB7" s="29"/>
-      <c r="AC7" s="29"/>
+      <c r="AA7" s="41"/>
+      <c r="AB7" s="31"/>
+      <c r="AC7" s="31"/>
     </row>
-    <row r="8" spans="1:29" s="21" customFormat="1">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:29" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8" t="s">
+      <c r="F8" s="10"/>
+      <c r="G8" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="11">
         <v>30000000</v>
       </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="10">
+      <c r="K8" s="11"/>
+      <c r="L8" s="12">
         <v>43481</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="12">
         <v>43844</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="10">
         <v>0</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="10">
         <f t="shared" si="0"/>
         <v>363</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="P8" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="11" t="s">
+      <c r="Q8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="R8" s="12">
+      <c r="R8" s="14">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="S8" s="12">
+      <c r="S8" s="14">
         <f t="shared" si="1"/>
         <v>3.7000000000000005E-2</v>
       </c>
-      <c r="T8" s="12">
+      <c r="T8" s="14">
         <f t="shared" si="2"/>
         <v>4.500000000000004E-3</v>
       </c>
-      <c r="U8" s="9">
+      <c r="U8" s="11">
         <f t="shared" si="3"/>
         <v>1043625.0000000001</v>
       </c>
-      <c r="V8" s="9">
+      <c r="V8" s="11">
         <f t="shared" si="4"/>
         <v>75625</v>
       </c>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9">
+      <c r="W8" s="11"/>
+      <c r="X8" s="11">
         <f t="shared" si="5"/>
         <v>1119250</v>
       </c>
-      <c r="Y8" s="9">
+      <c r="Y8" s="11">
         <f t="shared" si="6"/>
         <v>136125.00000000012</v>
       </c>
-      <c r="Z8" s="9">
+      <c r="Z8" s="11">
         <f t="shared" si="7"/>
         <v>28880750</v>
       </c>
-      <c r="AA8" s="22"/>
-      <c r="AB8" s="23"/>
-      <c r="AC8" s="23"/>
+      <c r="AA8" s="24"/>
+      <c r="AB8" s="25"/>
+      <c r="AC8" s="25"/>
     </row>
-    <row r="9" spans="1:29" s="21" customFormat="1">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:29" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8" t="s">
+      <c r="F9" s="10"/>
+      <c r="G9" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="11">
         <v>30000000</v>
       </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="10">
+      <c r="K9" s="11"/>
+      <c r="L9" s="12">
         <v>43481</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="12">
         <v>43844</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="10">
         <v>0</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="10">
         <f t="shared" si="0"/>
         <v>363</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="P9" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="Q9" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="R9" s="12">
+      <c r="R9" s="14">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="S9" s="12">
+      <c r="S9" s="14">
         <f t="shared" si="1"/>
         <v>3.7000000000000005E-2</v>
       </c>
-      <c r="T9" s="12">
+      <c r="T9" s="14">
         <f t="shared" si="2"/>
         <v>4.500000000000004E-3</v>
       </c>
-      <c r="U9" s="9">
+      <c r="U9" s="11">
         <f t="shared" si="3"/>
         <v>1043625.0000000001</v>
       </c>
-      <c r="V9" s="9">
+      <c r="V9" s="11">
         <f t="shared" si="4"/>
         <v>75625</v>
       </c>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9">
+      <c r="W9" s="11"/>
+      <c r="X9" s="11">
         <f t="shared" si="5"/>
         <v>1119250</v>
       </c>
-      <c r="Y9" s="9">
+      <c r="Y9" s="11">
         <f t="shared" si="6"/>
         <v>136125.00000000012</v>
       </c>
-      <c r="Z9" s="9">
+      <c r="Z9" s="11">
         <f t="shared" si="7"/>
         <v>28880750</v>
       </c>
-      <c r="AA9" s="40"/>
-      <c r="AB9" s="23"/>
-      <c r="AC9" s="23"/>
+      <c r="AA9" s="42"/>
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="25"/>
     </row>
-    <row r="10" spans="1:29" s="30" customFormat="1">
-      <c r="A10" s="21" t="s">
+    <row r="10" spans="1:29" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21" t="s">
+      <c r="F10" s="23"/>
+      <c r="G10" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="22">
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="24">
         <v>100200000</v>
       </c>
-      <c r="K10" s="22"/>
-      <c r="L10" s="10">
+      <c r="K10" s="24"/>
+      <c r="L10" s="12">
         <v>43486</v>
       </c>
-      <c r="M10" s="24">
+      <c r="M10" s="26">
         <v>43606</v>
       </c>
-      <c r="N10" s="25">
+      <c r="N10" s="27">
         <v>0</v>
       </c>
-      <c r="O10" s="25">
+      <c r="O10" s="27">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="P10" s="26" t="s">
+      <c r="P10" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="Q10" s="26" t="s">
+      <c r="Q10" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="R10" s="27">
+      <c r="R10" s="29">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="S10" s="27">
+      <c r="S10" s="29">
         <f t="shared" si="1"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="T10" s="27">
+      <c r="T10" s="29">
         <f t="shared" si="2"/>
         <v>3.4999999999999962E-3</v>
       </c>
-      <c r="U10" s="28">
+      <c r="U10" s="30">
         <f t="shared" si="3"/>
         <v>1202399.9999999998</v>
       </c>
-      <c r="V10" s="28">
+      <c r="V10" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W10" s="28"/>
-      <c r="X10" s="28">
+      <c r="W10" s="30"/>
+      <c r="X10" s="30">
         <f t="shared" si="5"/>
         <v>1202399.9999999998</v>
       </c>
-      <c r="Y10" s="28">
+      <c r="Y10" s="30">
         <f t="shared" si="6"/>
         <v>116899.99999999985</v>
       </c>
-      <c r="Z10" s="28">
+      <c r="Z10" s="30">
         <f t="shared" si="7"/>
         <v>98997600</v>
       </c>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="29"/>
-      <c r="AC10" s="29"/>
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="31"/>
+      <c r="AC10" s="31"/>
     </row>
-    <row r="11" spans="1:29" s="30" customFormat="1">
-      <c r="A11" s="21" t="s">
+    <row r="11" spans="1:29" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21" t="s">
+      <c r="F11" s="23"/>
+      <c r="G11" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="22">
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="24">
         <v>180000000</v>
       </c>
-      <c r="K11" s="22"/>
-      <c r="L11" s="10">
+      <c r="K11" s="24"/>
+      <c r="L11" s="12">
         <v>43487</v>
       </c>
-      <c r="M11" s="24">
+      <c r="M11" s="26">
         <v>43846</v>
       </c>
-      <c r="N11" s="25">
+      <c r="N11" s="27">
         <v>0</v>
       </c>
-      <c r="O11" s="25">
+      <c r="O11" s="27">
         <f t="shared" si="0"/>
         <v>359</v>
       </c>
-      <c r="P11" s="26" t="s">
+      <c r="P11" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="Q11" s="26" t="s">
+      <c r="Q11" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="R11" s="27">
+      <c r="R11" s="29">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="S11" s="27">
+      <c r="S11" s="29">
         <f t="shared" si="1"/>
         <v>3.6000000000000004E-2</v>
       </c>
-      <c r="T11" s="27">
+      <c r="T11" s="29">
         <f t="shared" si="2"/>
         <v>3.5000000000000031E-3</v>
       </c>
-      <c r="U11" s="28">
+      <c r="U11" s="30">
         <f t="shared" si="3"/>
         <v>6192750.0000000009</v>
       </c>
-      <c r="V11" s="28">
+      <c r="V11" s="30">
         <f t="shared" si="4"/>
         <v>269250</v>
       </c>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28">
+      <c r="W11" s="30"/>
+      <c r="X11" s="30">
         <f t="shared" si="5"/>
         <v>6462000.0000000009</v>
       </c>
-      <c r="Y11" s="28">
+      <c r="Y11" s="30">
         <f t="shared" si="6"/>
         <v>628250.00000000058</v>
       </c>
-      <c r="Z11" s="28">
+      <c r="Z11" s="30">
         <f t="shared" si="7"/>
         <v>173538000</v>
       </c>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="29"/>
-      <c r="AC11" s="29"/>
+      <c r="AA11" s="24"/>
+      <c r="AB11" s="31"/>
+      <c r="AC11" s="31"/>
     </row>
-    <row r="12" spans="1:29" s="14" customFormat="1">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8" t="s">
+      <c r="F12" s="10"/>
+      <c r="G12" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="9">
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="11">
         <v>100200000</v>
       </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="10">
+      <c r="K12" s="11"/>
+      <c r="L12" s="12">
         <v>43487</v>
       </c>
-      <c r="M12" s="10">
+      <c r="M12" s="12">
         <v>43606</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="10">
         <v>0</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O12" s="10">
         <f t="shared" si="0"/>
         <v>119</v>
       </c>
-      <c r="P12" s="11" t="s">
+      <c r="P12" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="Q12" s="11" t="s">
+      <c r="Q12" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="R12" s="12">
+      <c r="R12" s="14">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="S12" s="12">
+      <c r="S12" s="14">
         <f t="shared" si="1"/>
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="T12" s="12">
+      <c r="T12" s="14">
         <f t="shared" si="2"/>
         <v>4.4999999999999971E-3</v>
       </c>
-      <c r="U12" s="9">
+      <c r="U12" s="11">
         <f t="shared" si="3"/>
         <v>1225501.6666666667</v>
       </c>
-      <c r="V12" s="9">
+      <c r="V12" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9">
+      <c r="W12" s="11"/>
+      <c r="X12" s="11">
         <f t="shared" si="5"/>
         <v>1225501.6666666667</v>
       </c>
-      <c r="Y12" s="9">
+      <c r="Y12" s="11">
         <f t="shared" si="6"/>
         <v>149047.49999999988</v>
       </c>
-      <c r="Z12" s="9">
+      <c r="Z12" s="11">
         <f t="shared" si="7"/>
         <v>98974498.333333328</v>
       </c>
-      <c r="AA12" s="9"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="15"/>
     </row>
-    <row r="13" spans="1:29" s="30" customFormat="1">
-      <c r="A13" s="21" t="s">
+    <row r="13" spans="1:29" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21" t="s">
+      <c r="F13" s="23"/>
+      <c r="G13" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="22">
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="24">
         <v>25500000</v>
       </c>
-      <c r="K13" s="22"/>
-      <c r="L13" s="10">
+      <c r="K13" s="24"/>
+      <c r="L13" s="12">
         <v>43487</v>
       </c>
-      <c r="M13" s="24">
+      <c r="M13" s="26">
         <v>43847</v>
       </c>
-      <c r="N13" s="25">
+      <c r="N13" s="27">
         <v>0</v>
       </c>
-      <c r="O13" s="25">
+      <c r="O13" s="27">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="P13" s="26" t="s">
+      <c r="P13" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="Q13" s="26" t="s">
+      <c r="Q13" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="R13" s="27">
+      <c r="R13" s="29">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="S13" s="27">
+      <c r="S13" s="29">
         <f t="shared" si="1"/>
         <v>3.6500000000000005E-2</v>
       </c>
-      <c r="T13" s="27">
+      <c r="T13" s="29">
         <f t="shared" si="2"/>
         <v>4.0000000000000036E-3</v>
       </c>
-      <c r="U13" s="28">
+      <c r="U13" s="30">
         <f t="shared" si="3"/>
         <v>879750.00000000012</v>
       </c>
-      <c r="V13" s="28">
+      <c r="V13" s="30">
         <f t="shared" si="4"/>
         <v>51000</v>
       </c>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28">
+      <c r="W13" s="30"/>
+      <c r="X13" s="30">
         <f t="shared" si="5"/>
         <v>930750.00000000012</v>
       </c>
-      <c r="Y13" s="28">
+      <c r="Y13" s="30">
         <f t="shared" si="6"/>
         <v>102000.00000000009</v>
       </c>
-      <c r="Z13" s="28">
+      <c r="Z13" s="30">
         <f t="shared" si="7"/>
         <v>24569250</v>
       </c>
-      <c r="AA13" s="31"/>
-      <c r="AB13" s="29"/>
-      <c r="AC13" s="29"/>
+      <c r="AA13" s="33"/>
+      <c r="AB13" s="31"/>
+      <c r="AC13" s="31"/>
     </row>
-    <row r="14" spans="1:29" s="31" customFormat="1">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:29" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8" t="s">
+      <c r="F14" s="10"/>
+      <c r="G14" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="9">
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="11">
         <v>133500000</v>
       </c>
-      <c r="K14" s="9"/>
-      <c r="L14" s="10">
+      <c r="K14" s="11"/>
+      <c r="L14" s="12">
         <v>43487</v>
       </c>
-      <c r="M14" s="10">
+      <c r="M14" s="12">
         <v>43851</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N14" s="10">
         <v>0</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O14" s="10">
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="P14" s="11" t="s">
+      <c r="P14" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="Q14" s="11" t="s">
+      <c r="Q14" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="R14" s="12">
+      <c r="R14" s="14">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="S14" s="12">
+      <c r="S14" s="14">
         <f t="shared" si="1"/>
         <v>3.6500000000000005E-2</v>
       </c>
-      <c r="T14" s="12">
+      <c r="T14" s="14">
         <f t="shared" si="2"/>
         <v>4.0000000000000036E-3</v>
       </c>
-      <c r="U14" s="9">
+      <c r="U14" s="11">
         <f t="shared" si="3"/>
         <v>4656925</v>
       </c>
-      <c r="V14" s="9">
+      <c r="V14" s="11">
         <f t="shared" si="4"/>
         <v>269966.66666666669</v>
       </c>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9">
+      <c r="W14" s="11"/>
+      <c r="X14" s="11">
         <f t="shared" si="5"/>
         <v>4926891.666666667</v>
       </c>
-      <c r="Y14" s="9">
+      <c r="Y14" s="11">
         <f t="shared" si="6"/>
         <v>539933.33333333384</v>
       </c>
-      <c r="Z14" s="9">
+      <c r="Z14" s="11">
         <f t="shared" si="7"/>
         <v>128573108.33333333</v>
       </c>
-      <c r="AA14" s="41"/>
-      <c r="AB14" s="33"/>
-      <c r="AC14" s="33"/>
+      <c r="AA14" s="43"/>
+      <c r="AB14" s="35"/>
+      <c r="AC14" s="35"/>
     </row>
-    <row r="15" spans="1:29" s="41" customFormat="1">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="8" t="s">
+      <c r="C15" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="D15" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="9">
-        <v>30000000</v>
-      </c>
-      <c r="K15" s="9"/>
-      <c r="L15" s="10">
+      <c r="F15" s="18"/>
+      <c r="G15" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="19">
+        <v>15000000</v>
+      </c>
+      <c r="K15" s="19"/>
+      <c r="L15" s="12">
         <v>43488</v>
       </c>
-      <c r="M15" s="10">
-        <v>43844</v>
-      </c>
-      <c r="N15" s="8">
+      <c r="M15" s="20">
+        <v>43851</v>
+      </c>
+      <c r="N15" s="18">
         <v>0</v>
       </c>
-      <c r="O15" s="8">
-        <f t="shared" si="0"/>
-        <v>356</v>
-      </c>
-      <c r="P15" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q15" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="R15" s="12">
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="S15" s="12">
-        <f t="shared" si="1"/>
-        <v>3.6500000000000005E-2</v>
-      </c>
-      <c r="T15" s="12">
-        <f t="shared" si="2"/>
-        <v>4.0000000000000036E-3</v>
-      </c>
-      <c r="U15" s="9">
-        <f t="shared" si="3"/>
-        <v>1023500.0000000001</v>
-      </c>
-      <c r="V15" s="9">
-        <f t="shared" si="4"/>
-        <v>59333.333333333336</v>
-      </c>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9">
-        <f t="shared" si="5"/>
-        <v>1082833.3333333335</v>
-      </c>
-      <c r="Y15" s="9">
-        <f t="shared" si="6"/>
-        <v>118666.66666666677</v>
-      </c>
-      <c r="Z15" s="9">
-        <f t="shared" si="7"/>
-        <v>28917166.666666668</v>
-      </c>
-      <c r="AA15" s="32"/>
-      <c r="AB15" s="42"/>
-      <c r="AC15" s="42"/>
-    </row>
-    <row r="16" spans="1:29" s="8" customFormat="1">
-      <c r="A16" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="17">
-        <v>15000000</v>
-      </c>
-      <c r="K16" s="17"/>
-      <c r="L16" s="10">
-        <v>43488</v>
-      </c>
-      <c r="M16" s="18">
-        <v>43851</v>
-      </c>
-      <c r="N16" s="16">
-        <v>0</v>
-      </c>
-      <c r="O16" s="16">
+      <c r="O15" s="18">
         <f t="shared" si="0"/>
         <v>363</v>
       </c>
-      <c r="P16" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q16" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="R16" s="20">
+      <c r="P15" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q15" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="R15" s="22">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="S16" s="20">
+      <c r="S15" s="22">
         <f t="shared" si="1"/>
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="T16" s="20">
+      <c r="T15" s="22">
         <f t="shared" si="2"/>
         <v>1.0000000000000002E-2</v>
       </c>
-      <c r="U16" s="17">
+      <c r="U15" s="19">
         <f t="shared" si="3"/>
         <v>514250.00000000006</v>
       </c>
-      <c r="V16" s="17">
+      <c r="V15" s="19">
         <f t="shared" si="4"/>
         <v>121000</v>
       </c>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17">
+      <c r="W15" s="19"/>
+      <c r="X15" s="19">
         <f t="shared" si="5"/>
         <v>635250</v>
       </c>
-      <c r="Y16" s="17">
+      <c r="Y15" s="19">
         <f t="shared" si="6"/>
         <v>151250.00000000003</v>
       </c>
-      <c r="Z16" s="17">
+      <c r="Z15" s="19">
         <f t="shared" si="7"/>
         <v>14364750</v>
       </c>
-      <c r="AA16" s="43"/>
-      <c r="AB16" s="10"/>
-      <c r="AC16" s="10"/>
+      <c r="AA15" s="44"/>
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="12"/>
     </row>
-    <row r="17" spans="1:29" s="31" customFormat="1">
-      <c r="A17" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17" s="8" t="s">
+    <row r="16" spans="1:29" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C16" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" s="8" t="s">
+      <c r="D16" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="9">
+      <c r="F16" s="10"/>
+      <c r="G16" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="11">
         <v>100000000</v>
       </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="10">
+      <c r="K16" s="11"/>
+      <c r="L16" s="12">
         <v>43489</v>
       </c>
-      <c r="M17" s="10">
+      <c r="M16" s="12">
         <v>43818</v>
       </c>
-      <c r="N17" s="8">
+      <c r="N16" s="10">
         <v>1</v>
       </c>
-      <c r="O17" s="8">
+      <c r="O16" s="10">
         <f t="shared" si="0"/>
         <v>330</v>
       </c>
-      <c r="P17" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q17" s="11" t="s">
+      <c r="P16" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q16" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="R17" s="12">
+      <c r="R16" s="14">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="S17" s="12">
+      <c r="S16" s="14">
         <f t="shared" si="1"/>
         <v>3.3099999999999997E-2</v>
       </c>
-      <c r="T17" s="12">
+      <c r="T16" s="14">
         <f t="shared" si="2"/>
         <v>1.0999999999999968E-3</v>
       </c>
-      <c r="U17" s="9">
+      <c r="U16" s="11">
         <f t="shared" si="3"/>
         <v>3034166.666666666</v>
       </c>
-      <c r="V17" s="9">
-        <f>J17*Q17*O17/360</f>
+      <c r="V16" s="11">
+        <f>J16*Q16*O16/360</f>
         <v>0</v>
       </c>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9">
+      <c r="W16" s="11"/>
+      <c r="X16" s="11">
         <f t="shared" si="5"/>
         <v>3034166.666666666</v>
       </c>
-      <c r="Y17" s="9">
+      <c r="Y16" s="11">
         <f t="shared" si="6"/>
         <v>100833.33333333304</v>
       </c>
-      <c r="Z17" s="9">
+      <c r="Z16" s="11">
         <f t="shared" si="7"/>
         <v>96965833.333333328</v>
       </c>
-      <c r="AA17" s="44"/>
-      <c r="AB17" s="33"/>
-      <c r="AC17" s="33"/>
+      <c r="AA16" s="45"/>
+      <c r="AB16" s="35"/>
+      <c r="AC16" s="35"/>
     </row>
-    <row r="18" spans="1:29" s="21" customFormat="1">
-      <c r="A18" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B18" s="8" t="s">
+    <row r="17" spans="1:29" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E18" s="8" t="s">
+      <c r="C17" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="9">
+      <c r="F17" s="10"/>
+      <c r="G17" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="11">
         <v>40000000</v>
       </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="10">
+      <c r="K17" s="11"/>
+      <c r="L17" s="12">
         <v>43489</v>
       </c>
-      <c r="M18" s="10">
+      <c r="M17" s="12">
         <v>43656</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N17" s="10">
         <v>0</v>
       </c>
-      <c r="O18" s="8">
+      <c r="O17" s="10">
         <f t="shared" si="0"/>
         <v>167</v>
       </c>
-      <c r="P18" s="11" t="s">
+      <c r="P17" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="Q18" s="11" t="s">
+      <c r="Q17" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="R18" s="12">
+      <c r="R17" s="14">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="S18" s="12">
+      <c r="S17" s="14">
         <f t="shared" si="1"/>
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="T18" s="12">
+      <c r="T17" s="14">
         <f t="shared" si="2"/>
         <v>4.9999999999999975E-3</v>
       </c>
-      <c r="U18" s="9">
+      <c r="U17" s="11">
         <f t="shared" si="3"/>
         <v>686555.5555555555</v>
       </c>
-      <c r="V18" s="9">
+      <c r="V17" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9">
+      <c r="W17" s="11"/>
+      <c r="X17" s="11">
         <f t="shared" si="5"/>
         <v>686555.5555555555</v>
       </c>
-      <c r="Y18" s="9">
+      <c r="Y17" s="11">
         <f t="shared" si="6"/>
         <v>92777.777777777737</v>
       </c>
-      <c r="Z18" s="9">
+      <c r="Z17" s="11">
         <f t="shared" si="7"/>
         <v>39313444.444444448</v>
       </c>
-      <c r="AA18" s="44"/>
-      <c r="AB18" s="23"/>
-      <c r="AC18" s="23"/>
+      <c r="AA17" s="45"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="25"/>
     </row>
-    <row r="19" spans="1:29" s="21" customFormat="1">
-      <c r="A19" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B19" s="8" t="s">
+    <row r="18" spans="1:29" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C18" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="9">
+      <c r="D18" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="11">
         <v>15000000</v>
       </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="10">
+      <c r="K18" s="11"/>
+      <c r="L18" s="12">
         <v>43490</v>
       </c>
-      <c r="M19" s="10">
+      <c r="M18" s="12">
         <v>43854</v>
       </c>
-      <c r="N19" s="8">
+      <c r="N18" s="10">
         <v>0</v>
       </c>
-      <c r="O19" s="8">
+      <c r="O18" s="10">
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="P19" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q19" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="R19" s="12">
+      <c r="P18" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q18" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="R18" s="14">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="S19" s="12">
+      <c r="S18" s="14">
         <f t="shared" si="1"/>
         <v>3.6499999999999998E-2</v>
       </c>
-      <c r="T19" s="12">
+      <c r="T18" s="14">
         <f t="shared" si="2"/>
         <v>4.4999999999999971E-3</v>
       </c>
-      <c r="U19" s="9">
+      <c r="U18" s="11">
         <f t="shared" si="3"/>
         <v>514150</v>
       </c>
-      <c r="V19" s="9">
+      <c r="V18" s="11">
         <f t="shared" si="4"/>
         <v>39433.333333333336</v>
       </c>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9">
+      <c r="W18" s="11"/>
+      <c r="X18" s="11">
         <f t="shared" si="5"/>
         <v>553583.33333333337</v>
       </c>
-      <c r="Y19" s="9">
+      <c r="Y18" s="11">
         <f t="shared" si="6"/>
         <v>68249.999999999956</v>
       </c>
-      <c r="Z19" s="9">
+      <c r="Z18" s="11">
         <f t="shared" si="7"/>
         <v>14446416.666666666</v>
       </c>
-      <c r="AA19" s="32"/>
-      <c r="AB19" s="23"/>
-      <c r="AC19" s="23"/>
+      <c r="AA18" s="34"/>
+      <c r="AB18" s="25"/>
+      <c r="AC18" s="25"/>
     </row>
-    <row r="20" spans="1:29" s="21" customFormat="1">
-      <c r="A20" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B20" s="8" t="s">
+    <row r="19" spans="1:29" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C19" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E20" s="8" t="s">
+      <c r="D19" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8" t="s">
+      <c r="E19" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="9">
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="11">
         <v>60000000</v>
       </c>
-      <c r="K20" s="9"/>
-      <c r="L20" s="10">
+      <c r="K19" s="11"/>
+      <c r="L19" s="12">
         <v>43493</v>
       </c>
-      <c r="M20" s="10">
+      <c r="M19" s="12">
         <v>43854</v>
       </c>
-      <c r="N20" s="8">
+      <c r="N19" s="10">
         <v>0</v>
       </c>
-      <c r="O20" s="8">
+      <c r="O19" s="10">
         <f t="shared" si="0"/>
         <v>361</v>
       </c>
-      <c r="P20" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q20" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="R20" s="12">
+      <c r="P19" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q19" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="R19" s="14">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="S20" s="12">
+      <c r="S19" s="14">
         <f t="shared" si="1"/>
         <v>3.6499999999999998E-2</v>
       </c>
-      <c r="T20" s="12">
+      <c r="T19" s="14">
         <f t="shared" si="2"/>
         <v>4.4999999999999971E-3</v>
       </c>
-      <c r="U20" s="9">
+      <c r="U19" s="11">
         <f t="shared" si="3"/>
         <v>2039650</v>
       </c>
-      <c r="V20" s="9">
+      <c r="V19" s="11">
         <f t="shared" si="4"/>
         <v>156433.33333333334</v>
       </c>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9">
+      <c r="W19" s="11"/>
+      <c r="X19" s="11">
         <f t="shared" si="5"/>
         <v>2196083.3333333335</v>
       </c>
-      <c r="Y20" s="9">
+      <c r="Y19" s="11">
         <f t="shared" si="6"/>
         <v>270749.99999999983</v>
       </c>
-      <c r="Z20" s="9">
+      <c r="Z19" s="11">
         <f t="shared" si="7"/>
         <v>57803916.666666664</v>
       </c>
-      <c r="AA20" s="32"/>
-      <c r="AB20" s="23"/>
-      <c r="AC20" s="23"/>
+      <c r="AA19" s="34"/>
+      <c r="AB19" s="25"/>
+      <c r="AC19" s="25"/>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="I30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K8:K9 I2:I7 I10:I20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K8:K9 I2:I7 I10:I19">
       <formula1>"有,无"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J8:J9 H4:H7 H2 H10:H20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J8:J9 H4:H7 H2 H10:H19">
       <formula1>" ,有,无"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
 </worksheet>
 </file>
--- a/Assets/Resources/Excel/FFT_all.xlsx
+++ b/Assets/Resources/Excel/FFT_all.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="111">
   <si>
     <t>系统编号</t>
   </si>
@@ -344,16 +344,19 @@
   </si>
   <si>
     <t>KZ5002190018AA</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,6 +375,23 @@
       <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -408,8 +428,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
   </fills>
@@ -463,24 +482,29 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -536,9 +560,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -608,24 +629,28 @@
     <xf numFmtId="43" fontId="2" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="2" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="6" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="2" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="6" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="6" borderId="4" xfId="2" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="检查单元格" xfId="2" builtinId="23"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -639,7 +664,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -713,7 +738,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -748,7 +772,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -924,32 +947,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD30"/>
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15.6" thickTop="1" thickBottom="1"/>
   <cols>
-    <col min="1" max="3" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.75" style="2" customWidth="1"/>
-    <col min="21" max="21" width="16.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.77734375" style="2" customWidth="1"/>
+    <col min="20" max="20" width="8.88671875" style="42"/>
+    <col min="21" max="21" width="16.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.33203125" style="42" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.88671875" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:29" s="8" customFormat="1" thickTop="1" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1007,7 +1032,7 @@
       <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="40" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="5" t="s">
@@ -1022,13 +1047,13 @@
       <c r="X1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="45" t="s">
         <v>24</v>
       </c>
       <c r="Z1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AA1" s="43" t="s">
         <v>26</v>
       </c>
       <c r="AB1" s="9" t="s">
@@ -1038,7 +1063,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:29" s="16" customFormat="1" thickTop="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
@@ -1090,7 +1115,7 @@
         <f t="shared" ref="S2:S19" si="1">P2+Q2</f>
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="T2" s="14">
+      <c r="T2" s="41">
         <f t="shared" ref="T2:T19" si="2">S2-R2</f>
         <v>4.4999999999999971E-3</v>
       </c>
@@ -1107,7 +1132,7 @@
         <f t="shared" ref="X2:X19" si="5">U2+V2+W2</f>
         <v>833888.88888888876</v>
       </c>
-      <c r="Y2" s="11">
+      <c r="Y2" s="44">
         <f t="shared" ref="Y2:Y19" si="6">J2*T2*O2/360</f>
         <v>98749.999999999942</v>
       </c>
@@ -1115,11 +1140,11 @@
         <f t="shared" ref="Z2:Z19" si="7">J2-X2</f>
         <v>49166111.111111112</v>
       </c>
-      <c r="AA2" s="3"/>
+      <c r="AA2" s="42"/>
       <c r="AB2" s="15"/>
       <c r="AC2" s="15"/>
     </row>
-    <row r="3" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:29" s="16" customFormat="1" thickTop="1" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>37</v>
       </c>
@@ -1171,7 +1196,7 @@
         <f t="shared" si="1"/>
         <v>3.6500000000000005E-2</v>
       </c>
-      <c r="T3" s="14">
+      <c r="T3" s="41">
         <f t="shared" si="2"/>
         <v>4.0000000000000036E-3</v>
       </c>
@@ -1187,7 +1212,7 @@
         <f t="shared" si="5"/>
         <v>1059861.1133333333</v>
       </c>
-      <c r="Y3" s="11">
+      <c r="Y3" s="44">
         <f t="shared" si="6"/>
         <v>561666.66666666721</v>
       </c>
@@ -1195,92 +1220,92 @@
         <f t="shared" si="7"/>
         <v>148940138.88666666</v>
       </c>
-      <c r="AA3" s="17"/>
+      <c r="AA3" s="44"/>
       <c r="AB3" s="15"/>
       <c r="AC3" s="15"/>
     </row>
-    <row r="4" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:29" s="16" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A4" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18" t="s">
+      <c r="F4" s="17"/>
+      <c r="G4" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="19">
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="18">
         <v>5000000</v>
       </c>
-      <c r="K4" s="19"/>
+      <c r="K4" s="18"/>
       <c r="L4" s="12">
         <v>43475</v>
       </c>
-      <c r="M4" s="20">
+      <c r="M4" s="19">
         <v>43838</v>
       </c>
-      <c r="N4" s="18">
+      <c r="N4" s="17">
         <v>0</v>
       </c>
-      <c r="O4" s="18">
+      <c r="O4" s="17">
         <f t="shared" si="0"/>
         <v>363</v>
       </c>
-      <c r="P4" s="21" t="s">
+      <c r="P4" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="Q4" s="21" t="s">
+      <c r="Q4" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="R4" s="22">
+      <c r="R4" s="21">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="S4" s="22">
+      <c r="S4" s="21">
         <f t="shared" si="1"/>
         <v>3.8000000000000006E-2</v>
       </c>
-      <c r="T4" s="22">
+      <c r="T4" s="41">
         <f t="shared" si="2"/>
         <v>5.5000000000000049E-3</v>
       </c>
-      <c r="U4" s="19">
+      <c r="U4" s="18">
         <f t="shared" si="3"/>
         <v>173937.5</v>
       </c>
-      <c r="V4" s="19">
+      <c r="V4" s="18">
         <f t="shared" si="4"/>
         <v>17645.833333333332</v>
       </c>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19">
+      <c r="W4" s="18"/>
+      <c r="X4" s="18">
         <f t="shared" si="5"/>
         <v>191583.33333333334</v>
       </c>
-      <c r="Y4" s="19">
+      <c r="Y4" s="44">
         <f t="shared" si="6"/>
         <v>27729.166666666693</v>
       </c>
-      <c r="Z4" s="19">
+      <c r="Z4" s="18">
         <f t="shared" si="7"/>
         <v>4808416.666666667</v>
       </c>
-      <c r="AA4" s="11"/>
+      <c r="AA4" s="44"/>
       <c r="AB4" s="15"/>
       <c r="AC4" s="15"/>
     </row>
-    <row r="5" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:29" s="16" customFormat="1" thickTop="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>49</v>
       </c>
@@ -1332,7 +1357,7 @@
         <f t="shared" si="1"/>
         <v>3.4500000000000003E-2</v>
       </c>
-      <c r="T5" s="14">
+      <c r="T5" s="41">
         <f t="shared" si="2"/>
         <v>2.0000000000000018E-3</v>
       </c>
@@ -1349,7 +1374,7 @@
         <f t="shared" si="5"/>
         <v>312904.9375</v>
       </c>
-      <c r="Y5" s="11">
+      <c r="Y5" s="44">
         <f t="shared" si="6"/>
         <v>18139.416666666682</v>
       </c>
@@ -1357,173 +1382,173 @@
         <f t="shared" si="7"/>
         <v>9672095.0625</v>
       </c>
-      <c r="AA5" s="17"/>
+      <c r="AA5" s="44"/>
       <c r="AB5" s="15"/>
       <c r="AC5" s="15"/>
     </row>
-    <row r="6" spans="1:29" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="23" t="s">
+    <row r="6" spans="1:29" s="31" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A6" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23" t="s">
+      <c r="F6" s="22"/>
+      <c r="G6" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="24">
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="23">
         <v>147000000</v>
       </c>
-      <c r="K6" s="24"/>
+      <c r="K6" s="23"/>
       <c r="L6" s="12">
         <v>43476</v>
       </c>
-      <c r="M6" s="26">
+      <c r="M6" s="25">
         <v>43656</v>
       </c>
-      <c r="N6" s="27">
+      <c r="N6" s="26">
         <v>0</v>
       </c>
-      <c r="O6" s="27">
+      <c r="O6" s="26">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="P6" s="28" t="s">
+      <c r="P6" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="Q6" s="28" t="s">
+      <c r="Q6" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="R6" s="29">
+      <c r="R6" s="28">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="S6" s="29">
+      <c r="S6" s="28">
         <f t="shared" si="1"/>
         <v>3.6500000000000005E-2</v>
       </c>
-      <c r="T6" s="29">
+      <c r="T6" s="41">
         <f t="shared" si="2"/>
         <v>4.0000000000000036E-3</v>
       </c>
-      <c r="U6" s="30">
+      <c r="U6" s="29">
         <f t="shared" si="3"/>
         <v>2535750</v>
       </c>
-      <c r="V6" s="30">
+      <c r="V6" s="29">
         <f t="shared" si="4"/>
         <v>147000</v>
       </c>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30">
+      <c r="W6" s="29"/>
+      <c r="X6" s="29">
         <f t="shared" si="5"/>
         <v>2682750</v>
       </c>
-      <c r="Y6" s="30">
+      <c r="Y6" s="44">
         <f t="shared" si="6"/>
         <v>294000.00000000023</v>
       </c>
-      <c r="Z6" s="30">
+      <c r="Z6" s="29">
         <f t="shared" si="7"/>
         <v>144317250</v>
       </c>
-      <c r="AA6" s="24"/>
-      <c r="AB6" s="31"/>
-      <c r="AC6" s="31"/>
+      <c r="AA6" s="44"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
     </row>
-    <row r="7" spans="1:29" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="33" t="s">
+    <row r="7" spans="1:29" s="31" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A7" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33" t="s">
+      <c r="F7" s="32"/>
+      <c r="G7" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="34">
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="33">
         <v>30000000</v>
       </c>
-      <c r="K7" s="34"/>
+      <c r="K7" s="33"/>
       <c r="L7" s="12">
         <v>43476</v>
       </c>
-      <c r="M7" s="36">
+      <c r="M7" s="35">
         <v>43840</v>
       </c>
-      <c r="N7" s="37">
+      <c r="N7" s="36">
         <v>0</v>
       </c>
-      <c r="O7" s="37">
+      <c r="O7" s="36">
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="P7" s="38" t="s">
+      <c r="P7" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="Q7" s="38" t="s">
+      <c r="Q7" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="R7" s="39">
+      <c r="R7" s="38">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="S7" s="39">
+      <c r="S7" s="38">
         <f t="shared" si="1"/>
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="T7" s="39">
+      <c r="T7" s="41">
         <f t="shared" si="2"/>
         <v>9.5000000000000015E-3</v>
       </c>
-      <c r="U7" s="40">
+      <c r="U7" s="39">
         <f t="shared" si="3"/>
         <v>1046500.0000000001</v>
       </c>
-      <c r="V7" s="40">
+      <c r="V7" s="39">
         <f t="shared" si="4"/>
         <v>227500</v>
       </c>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40">
+      <c r="W7" s="39"/>
+      <c r="X7" s="39">
         <f t="shared" si="5"/>
         <v>1274000</v>
       </c>
-      <c r="Y7" s="40">
+      <c r="Y7" s="44">
         <f t="shared" si="6"/>
         <v>288166.66666666669</v>
       </c>
-      <c r="Z7" s="40">
+      <c r="Z7" s="39">
         <f t="shared" si="7"/>
         <v>28726000</v>
       </c>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="31"/>
-      <c r="AC7" s="31"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="30"/>
     </row>
-    <row r="8" spans="1:29" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:29" s="22" customFormat="1" thickTop="1" thickBot="1">
       <c r="A8" s="10" t="s">
         <v>63</v>
       </c>
@@ -1573,7 +1598,7 @@
         <f t="shared" si="1"/>
         <v>3.7000000000000005E-2</v>
       </c>
-      <c r="T8" s="14">
+      <c r="T8" s="41">
         <f t="shared" si="2"/>
         <v>4.500000000000004E-3</v>
       </c>
@@ -1590,7 +1615,7 @@
         <f t="shared" si="5"/>
         <v>1119250</v>
       </c>
-      <c r="Y8" s="11">
+      <c r="Y8" s="44">
         <f t="shared" si="6"/>
         <v>136125.00000000012</v>
       </c>
@@ -1598,11 +1623,11 @@
         <f t="shared" si="7"/>
         <v>28880750</v>
       </c>
-      <c r="AA8" s="24"/>
-      <c r="AB8" s="25"/>
-      <c r="AC8" s="25"/>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="24"/>
+      <c r="AC8" s="24"/>
     </row>
-    <row r="9" spans="1:29" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:29" s="22" customFormat="1" thickTop="1" thickBot="1">
       <c r="A9" s="10" t="s">
         <v>66</v>
       </c>
@@ -1652,7 +1677,7 @@
         <f t="shared" si="1"/>
         <v>3.7000000000000005E-2</v>
       </c>
-      <c r="T9" s="14">
+      <c r="T9" s="41">
         <f t="shared" si="2"/>
         <v>4.500000000000004E-3</v>
       </c>
@@ -1669,7 +1694,7 @@
         <f t="shared" si="5"/>
         <v>1119250</v>
       </c>
-      <c r="Y9" s="11">
+      <c r="Y9" s="44">
         <f t="shared" si="6"/>
         <v>136125.00000000012</v>
       </c>
@@ -1678,172 +1703,172 @@
         <v>28880750</v>
       </c>
       <c r="AA9" s="42"/>
-      <c r="AB9" s="25"/>
-      <c r="AC9" s="25"/>
+      <c r="AB9" s="24"/>
+      <c r="AC9" s="24"/>
     </row>
-    <row r="10" spans="1:29" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="23" t="s">
+    <row r="10" spans="1:29" s="31" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A10" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23" t="s">
+      <c r="F10" s="22"/>
+      <c r="G10" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="24">
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="23">
         <v>100200000</v>
       </c>
-      <c r="K10" s="24"/>
+      <c r="K10" s="23"/>
       <c r="L10" s="12">
         <v>43486</v>
       </c>
-      <c r="M10" s="26">
+      <c r="M10" s="25">
         <v>43606</v>
       </c>
-      <c r="N10" s="27">
+      <c r="N10" s="26">
         <v>0</v>
       </c>
-      <c r="O10" s="27">
+      <c r="O10" s="26">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="P10" s="28" t="s">
+      <c r="P10" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="Q10" s="28" t="s">
+      <c r="Q10" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="R10" s="29">
+      <c r="R10" s="28">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="S10" s="29">
+      <c r="S10" s="28">
         <f t="shared" si="1"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="T10" s="29">
+      <c r="T10" s="41">
         <f t="shared" si="2"/>
         <v>3.4999999999999962E-3</v>
       </c>
-      <c r="U10" s="30">
+      <c r="U10" s="29">
         <f t="shared" si="3"/>
         <v>1202399.9999999998</v>
       </c>
-      <c r="V10" s="30">
+      <c r="V10" s="29">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W10" s="30"/>
-      <c r="X10" s="30">
+      <c r="W10" s="29"/>
+      <c r="X10" s="29">
         <f t="shared" si="5"/>
         <v>1202399.9999999998</v>
       </c>
-      <c r="Y10" s="30">
+      <c r="Y10" s="44">
         <f t="shared" si="6"/>
         <v>116899.99999999985</v>
       </c>
-      <c r="Z10" s="30">
+      <c r="Z10" s="29">
         <f t="shared" si="7"/>
         <v>98997600</v>
       </c>
-      <c r="AA10" s="24"/>
-      <c r="AB10" s="31"/>
-      <c r="AC10" s="31"/>
+      <c r="AA10" s="44"/>
+      <c r="AB10" s="30"/>
+      <c r="AC10" s="30"/>
     </row>
-    <row r="11" spans="1:29" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="23" t="s">
+    <row r="11" spans="1:29" s="31" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A11" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23" t="s">
+      <c r="F11" s="22"/>
+      <c r="G11" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="24">
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="23">
         <v>180000000</v>
       </c>
-      <c r="K11" s="24"/>
+      <c r="K11" s="23"/>
       <c r="L11" s="12">
         <v>43487</v>
       </c>
-      <c r="M11" s="26">
+      <c r="M11" s="25">
         <v>43846</v>
       </c>
-      <c r="N11" s="27">
+      <c r="N11" s="26">
         <v>0</v>
       </c>
-      <c r="O11" s="27">
+      <c r="O11" s="26">
         <f t="shared" si="0"/>
         <v>359</v>
       </c>
-      <c r="P11" s="28" t="s">
+      <c r="P11" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="Q11" s="28" t="s">
+      <c r="Q11" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="R11" s="29">
+      <c r="R11" s="28">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="S11" s="29">
+      <c r="S11" s="28">
         <f t="shared" si="1"/>
         <v>3.6000000000000004E-2</v>
       </c>
-      <c r="T11" s="29">
+      <c r="T11" s="41">
         <f t="shared" si="2"/>
         <v>3.5000000000000031E-3</v>
       </c>
-      <c r="U11" s="30">
+      <c r="U11" s="29">
         <f t="shared" si="3"/>
         <v>6192750.0000000009</v>
       </c>
-      <c r="V11" s="30">
+      <c r="V11" s="29">
         <f t="shared" si="4"/>
         <v>269250</v>
       </c>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30">
+      <c r="W11" s="29"/>
+      <c r="X11" s="29">
         <f t="shared" si="5"/>
         <v>6462000.0000000009</v>
       </c>
-      <c r="Y11" s="30">
+      <c r="Y11" s="44">
         <f t="shared" si="6"/>
         <v>628250.00000000058</v>
       </c>
-      <c r="Z11" s="30">
+      <c r="Z11" s="29">
         <f t="shared" si="7"/>
         <v>173538000</v>
       </c>
-      <c r="AA11" s="24"/>
-      <c r="AB11" s="31"/>
-      <c r="AC11" s="31"/>
+      <c r="AA11" s="44"/>
+      <c r="AB11" s="30"/>
+      <c r="AC11" s="30"/>
     </row>
-    <row r="12" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:29" s="16" customFormat="1" thickTop="1" thickBot="1">
       <c r="A12" s="10" t="s">
         <v>79</v>
       </c>
@@ -1895,7 +1920,7 @@
         <f t="shared" si="1"/>
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="T12" s="14">
+      <c r="T12" s="41">
         <f t="shared" si="2"/>
         <v>4.4999999999999971E-3</v>
       </c>
@@ -1912,7 +1937,7 @@
         <f t="shared" si="5"/>
         <v>1225501.6666666667</v>
       </c>
-      <c r="Y12" s="11">
+      <c r="Y12" s="44">
         <f t="shared" si="6"/>
         <v>149047.49999999988</v>
       </c>
@@ -1920,92 +1945,92 @@
         <f t="shared" si="7"/>
         <v>98974498.333333328</v>
       </c>
-      <c r="AA12" s="11"/>
+      <c r="AA12" s="44"/>
       <c r="AB12" s="15"/>
       <c r="AC12" s="15"/>
     </row>
-    <row r="13" spans="1:29" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="23" t="s">
+    <row r="13" spans="1:29" s="31" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A13" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23" t="s">
+      <c r="F13" s="22"/>
+      <c r="G13" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="24">
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="23">
         <v>25500000</v>
       </c>
-      <c r="K13" s="24"/>
+      <c r="K13" s="23"/>
       <c r="L13" s="12">
         <v>43487</v>
       </c>
-      <c r="M13" s="26">
+      <c r="M13" s="25">
         <v>43847</v>
       </c>
-      <c r="N13" s="27">
+      <c r="N13" s="26">
         <v>0</v>
       </c>
-      <c r="O13" s="27">
+      <c r="O13" s="26">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="P13" s="28" t="s">
+      <c r="P13" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="Q13" s="28" t="s">
+      <c r="Q13" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="R13" s="29">
+      <c r="R13" s="28">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="S13" s="29">
+      <c r="S13" s="28">
         <f t="shared" si="1"/>
         <v>3.6500000000000005E-2</v>
       </c>
-      <c r="T13" s="29">
+      <c r="T13" s="41">
         <f t="shared" si="2"/>
         <v>4.0000000000000036E-3</v>
       </c>
-      <c r="U13" s="30">
+      <c r="U13" s="29">
         <f t="shared" si="3"/>
         <v>879750.00000000012</v>
       </c>
-      <c r="V13" s="30">
+      <c r="V13" s="29">
         <f t="shared" si="4"/>
         <v>51000</v>
       </c>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30">
+      <c r="W13" s="29"/>
+      <c r="X13" s="29">
         <f t="shared" si="5"/>
         <v>930750.00000000012</v>
       </c>
-      <c r="Y13" s="30">
+      <c r="Y13" s="44">
         <f t="shared" si="6"/>
         <v>102000.00000000009</v>
       </c>
-      <c r="Z13" s="30">
+      <c r="Z13" s="29">
         <f t="shared" si="7"/>
         <v>24569250</v>
       </c>
-      <c r="AA13" s="33"/>
-      <c r="AB13" s="31"/>
-      <c r="AC13" s="31"/>
+      <c r="AA13" s="42"/>
+      <c r="AB13" s="30"/>
+      <c r="AC13" s="30"/>
     </row>
-    <row r="14" spans="1:29" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:29" s="32" customFormat="1" thickTop="1" thickBot="1">
       <c r="A14" s="10" t="s">
         <v>85</v>
       </c>
@@ -2057,7 +2082,7 @@
         <f t="shared" si="1"/>
         <v>3.6500000000000005E-2</v>
       </c>
-      <c r="T14" s="14">
+      <c r="T14" s="41">
         <f t="shared" si="2"/>
         <v>4.0000000000000036E-3</v>
       </c>
@@ -2074,7 +2099,7 @@
         <f t="shared" si="5"/>
         <v>4926891.666666667</v>
       </c>
-      <c r="Y14" s="11">
+      <c r="Y14" s="44">
         <f t="shared" si="6"/>
         <v>539933.33333333384</v>
       </c>
@@ -2082,84 +2107,84 @@
         <f t="shared" si="7"/>
         <v>128573108.33333333</v>
       </c>
-      <c r="AA14" s="43"/>
-      <c r="AB14" s="35"/>
-      <c r="AC14" s="35"/>
+      <c r="AA14" s="42"/>
+      <c r="AB14" s="34"/>
+      <c r="AC14" s="34"/>
     </row>
-    <row r="15" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="18" t="s">
+    <row r="15" spans="1:29" s="10" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A15" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18" t="s">
+      <c r="F15" s="17"/>
+      <c r="G15" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="19">
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="18">
         <v>15000000</v>
       </c>
-      <c r="K15" s="19"/>
+      <c r="K15" s="18"/>
       <c r="L15" s="12">
         <v>43488</v>
       </c>
-      <c r="M15" s="20">
+      <c r="M15" s="19">
         <v>43851</v>
       </c>
-      <c r="N15" s="18">
+      <c r="N15" s="17">
         <v>0</v>
       </c>
-      <c r="O15" s="18">
+      <c r="O15" s="17">
         <f t="shared" si="0"/>
         <v>363</v>
       </c>
-      <c r="P15" s="21" t="s">
+      <c r="P15" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="Q15" s="21" t="s">
+      <c r="Q15" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="R15" s="22">
+      <c r="R15" s="21">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="S15" s="22">
+      <c r="S15" s="21">
         <f t="shared" si="1"/>
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="T15" s="22">
+      <c r="T15" s="41">
         <f t="shared" si="2"/>
         <v>1.0000000000000002E-2</v>
       </c>
-      <c r="U15" s="19">
+      <c r="U15" s="18">
         <f t="shared" si="3"/>
         <v>514250.00000000006</v>
       </c>
-      <c r="V15" s="19">
+      <c r="V15" s="18">
         <f t="shared" si="4"/>
         <v>121000</v>
       </c>
-      <c r="W15" s="19"/>
-      <c r="X15" s="19">
+      <c r="W15" s="18"/>
+      <c r="X15" s="18">
         <f t="shared" si="5"/>
         <v>635250</v>
       </c>
-      <c r="Y15" s="19">
+      <c r="Y15" s="44">
         <f t="shared" si="6"/>
         <v>151250.00000000003</v>
       </c>
-      <c r="Z15" s="19">
+      <c r="Z15" s="18">
         <f t="shared" si="7"/>
         <v>14364750</v>
       </c>
@@ -2167,7 +2192,7 @@
       <c r="AB15" s="12"/>
       <c r="AC15" s="12"/>
     </row>
-    <row r="16" spans="1:29" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:29" s="32" customFormat="1" thickTop="1" thickBot="1">
       <c r="A16" s="10" t="s">
         <v>95</v>
       </c>
@@ -2219,7 +2244,7 @@
         <f t="shared" si="1"/>
         <v>3.3099999999999997E-2</v>
       </c>
-      <c r="T16" s="14">
+      <c r="T16" s="41">
         <f t="shared" si="2"/>
         <v>1.0999999999999968E-3</v>
       </c>
@@ -2236,7 +2261,7 @@
         <f t="shared" si="5"/>
         <v>3034166.666666666</v>
       </c>
-      <c r="Y16" s="11">
+      <c r="Y16" s="44">
         <f t="shared" si="6"/>
         <v>100833.33333333304</v>
       </c>
@@ -2244,11 +2269,11 @@
         <f t="shared" si="7"/>
         <v>96965833.333333328</v>
       </c>
-      <c r="AA16" s="45"/>
-      <c r="AB16" s="35"/>
-      <c r="AC16" s="35"/>
+      <c r="AA16" s="44"/>
+      <c r="AB16" s="34"/>
+      <c r="AC16" s="34"/>
     </row>
-    <row r="17" spans="1:29" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:29" s="22" customFormat="1" thickTop="1" thickBot="1">
       <c r="A17" s="10" t="s">
         <v>99</v>
       </c>
@@ -2300,7 +2325,7 @@
         <f t="shared" si="1"/>
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="T17" s="14">
+      <c r="T17" s="41">
         <f t="shared" si="2"/>
         <v>4.9999999999999975E-3</v>
       </c>
@@ -2317,7 +2342,7 @@
         <f t="shared" si="5"/>
         <v>686555.5555555555</v>
       </c>
-      <c r="Y17" s="11">
+      <c r="Y17" s="44">
         <f t="shared" si="6"/>
         <v>92777.777777777737</v>
       </c>
@@ -2325,11 +2350,11 @@
         <f t="shared" si="7"/>
         <v>39313444.444444448</v>
       </c>
-      <c r="AA17" s="45"/>
-      <c r="AB17" s="25"/>
-      <c r="AC17" s="25"/>
+      <c r="AA17" s="44"/>
+      <c r="AB17" s="24"/>
+      <c r="AC17" s="24"/>
     </row>
-    <row r="18" spans="1:29" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:29" s="22" customFormat="1" thickTop="1" thickBot="1">
       <c r="A18" s="10" t="s">
         <v>103</v>
       </c>
@@ -2381,7 +2406,7 @@
         <f t="shared" si="1"/>
         <v>3.6499999999999998E-2</v>
       </c>
-      <c r="T18" s="14">
+      <c r="T18" s="41">
         <f t="shared" si="2"/>
         <v>4.4999999999999971E-3</v>
       </c>
@@ -2398,7 +2423,7 @@
         <f t="shared" si="5"/>
         <v>553583.33333333337</v>
       </c>
-      <c r="Y18" s="11">
+      <c r="Y18" s="44">
         <f t="shared" si="6"/>
         <v>68249.999999999956</v>
       </c>
@@ -2406,11 +2431,11 @@
         <f t="shared" si="7"/>
         <v>14446416.666666666</v>
       </c>
-      <c r="AA18" s="34"/>
-      <c r="AB18" s="25"/>
-      <c r="AC18" s="25"/>
+      <c r="AA18" s="44"/>
+      <c r="AB18" s="24"/>
+      <c r="AC18" s="24"/>
     </row>
-    <row r="19" spans="1:29" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:29" s="22" customFormat="1" thickTop="1" thickBot="1">
       <c r="A19" s="10" t="s">
         <v>108</v>
       </c>
@@ -2462,7 +2487,7 @@
         <f t="shared" si="1"/>
         <v>3.6499999999999998E-2</v>
       </c>
-      <c r="T19" s="14">
+      <c r="T19" s="41">
         <f t="shared" si="2"/>
         <v>4.4999999999999971E-3</v>
       </c>
@@ -2479,7 +2504,7 @@
         <f t="shared" si="5"/>
         <v>2196083.3333333335</v>
       </c>
-      <c r="Y19" s="11">
+      <c r="Y19" s="44">
         <f t="shared" si="6"/>
         <v>270749.99999999983</v>
       </c>
@@ -2487,20 +2512,43 @@
         <f t="shared" si="7"/>
         <v>57803916.666666664</v>
       </c>
-      <c r="AA19" s="34"/>
-      <c r="AB19" s="25"/>
-      <c r="AC19" s="25"/>
+      <c r="AA19" s="44"/>
+      <c r="AB19" s="24"/>
+      <c r="AC19" s="24"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:29" thickTop="1" thickBot="1">
       <c r="I30" s="1"/>
       <c r="K30" s="1"/>
       <c r="N30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="AA30" s="1"/>
-      <c r="AB30" s="1"/>
-      <c r="AC30" s="1"/>
+      <c r="T30" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="U30" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="V30" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="X30" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y30" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z30" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA30" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB30" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC30" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Resources/Excel/FFT_all.xlsx
+++ b/Assets/Resources/Excel/FFT_all.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>系统编号</t>
   </si>
@@ -347,6 +347,9 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>8123456789.88</t>
   </si>
 </sst>
 </file>
@@ -383,7 +386,6 @@
       <color theme="0"/>
       <name val="宋体"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -391,7 +393,6 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -501,157 +502,163 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="48">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="6" applyFill="1" borderId="4" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="2" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="3" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="2" applyFont="1" fillId="5" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="5" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="3" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="6" applyFill="1" borderId="4" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="6" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="2" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="6" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="6" borderId="4" xfId="2" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" applyNumberFormat="1" fontId="4" applyFont="1" fillId="6" applyFill="1" borderId="4" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="6" applyFill="1" borderId="4" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="4" applyFont="1" fillId="6" applyFill="1" borderId="4" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="3" applyFont="1" fillId="6" applyFill="1" borderId="4" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="检查单元格" xfId="2" builtinId="23"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="检查单元格" xfId="1" builtinId="23"/>
+    <cellStyle name="千位分隔" xfId="2" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -956,1597 +963,1646 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" thickTop="1" thickBottom="1"/>
   <cols>
-    <col min="1" max="3" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.77734375" style="2" customWidth="1"/>
-    <col min="20" max="20" width="8.88671875" style="42"/>
-    <col min="21" max="21" width="16.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.33203125" style="42" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.88671875" style="42"/>
+    <col min="1" max="3" bestFit="1" width="9.44140625" customWidth="1" style="5"/>
+    <col min="4" max="6" bestFit="1" width="11.6640625" customWidth="1" style="5"/>
+    <col min="7" max="8" bestFit="1" width="9.44140625" customWidth="1" style="5"/>
+    <col min="10" max="10" bestFit="1" width="18.33203125" customWidth="1" style="5"/>
+    <col min="12" max="12" bestFit="1" width="10.44140625" customWidth="1" style="5"/>
+    <col min="13" max="13" bestFit="1" width="11.6640625" customWidth="1" style="5"/>
+    <col min="15" max="15" bestFit="1" width="8.44140625" customWidth="1" style="5"/>
+    <col min="16" max="16" bestFit="1" width="9.44140625" customWidth="1" style="5"/>
+    <col min="17" max="17" width="6.77734375" customWidth="1" style="5"/>
+    <col min="20" max="20" width="8.88671875" customWidth="1" style="45"/>
+    <col min="21" max="21" bestFit="1" width="16.109375" customWidth="1" style="5"/>
+    <col min="22" max="22" bestFit="1" width="13.88671875" customWidth="1" style="5"/>
+    <col min="24" max="24" bestFit="1" width="16.109375" customWidth="1" style="5"/>
+    <col min="25" max="25" bestFit="1" width="15.33203125" customWidth="1" style="45"/>
+    <col min="26" max="26" bestFit="1" width="18.33203125" customWidth="1" style="5"/>
+    <col min="27" max="27" width="8.88671875" customWidth="1" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="8" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="11" customFormat="1">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="40" t="s">
+      <c r="T1" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="45" t="s">
+      <c r="Y1" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="43" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AB1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AC1" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="16" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A2" s="10" t="s">
+    <row r="2" s="19" customFormat="1">
+      <c r="A2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="11">
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="14">
         <v>50000000</v>
       </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="12">
+      <c r="K2" s="14"/>
+      <c r="L2" s="15">
         <v>43469</v>
       </c>
-      <c r="M2" s="12">
+      <c r="M2" s="15">
         <v>43627</v>
       </c>
-      <c r="N2" s="10">
+      <c r="N2" s="13">
         <v>0</v>
       </c>
-      <c r="O2" s="10">
-        <f t="shared" ref="O2:O19" si="0">M2-L2+N2</f>
+      <c r="O2" s="13">
+        <f ref="O2:O19" t="shared" si="0">M2-L2+N2</f>
         <v>158</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="14">
-        <v>3.3500000000000002E-2</v>
-      </c>
-      <c r="S2" s="14">
-        <f t="shared" ref="S2:S19" si="1">P2+Q2</f>
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="T2" s="41">
-        <f t="shared" ref="T2:T19" si="2">S2-R2</f>
-        <v>4.4999999999999971E-3</v>
-      </c>
-      <c r="U2" s="11">
-        <f t="shared" ref="U2:U19" si="3">J2*P2*O2/360</f>
+      <c r="R2" s="17">
+        <v>0.0335</v>
+      </c>
+      <c r="S2" s="17">
+        <f ref="S2:S19" t="shared" si="1">P2+Q2</f>
+        <v>0.038</v>
+      </c>
+      <c r="T2" s="44">
+        <f ref="T2:T19" t="shared" si="2">S2-R2</f>
+        <v>0.0044999999999999971</v>
+      </c>
+      <c r="U2" s="14">
+        <f ref="U2:U19" t="shared" si="3">J2*P2*O2/360</f>
         <v>779027.77777777764</v>
       </c>
-      <c r="V2" s="11">
-        <f t="shared" ref="V2:V19" si="4">J2*Q2*O2/360</f>
+      <c r="V2" s="14">
+        <f ref="V2:V19" t="shared" si="4">J2*Q2*O2/360</f>
         <v>54861.111111111109</v>
       </c>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11">
-        <f t="shared" ref="X2:X19" si="5">U2+V2+W2</f>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14">
+        <f ref="X2:X19" t="shared" si="5">U2+V2+W2</f>
         <v>833888.88888888876</v>
       </c>
-      <c r="Y2" s="44">
-        <f t="shared" ref="Y2:Y19" si="6">J2*T2*O2/360</f>
+      <c r="Y2" s="46">
+        <f ref="Y2:Y19" t="shared" si="6">J2*T2*O2/360</f>
         <v>98749.999999999942</v>
       </c>
-      <c r="Z2" s="11">
-        <f t="shared" ref="Z2:Z19" si="7">J2-X2</f>
+      <c r="Z2" s="14">
+        <f ref="Z2:Z19" t="shared" si="7">J2-X2</f>
         <v>49166111.111111112</v>
       </c>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
     </row>
-    <row r="3" spans="1:29" s="16" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A3" s="10" t="s">
+    <row r="3" s="19" customFormat="1">
+      <c r="A3" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10" t="s">
+      <c r="F3" s="13"/>
+      <c r="G3" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="11">
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="14">
         <v>150000000</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="12">
+      <c r="K3" s="14"/>
+      <c r="L3" s="15">
         <v>43473</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="15">
         <v>43810</v>
       </c>
-      <c r="N3" s="10">
+      <c r="N3" s="13">
         <v>0</v>
       </c>
-      <c r="O3" s="10">
+      <c r="O3" s="13">
         <f t="shared" si="0"/>
         <v>337</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="P3" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="Q3" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="R3" s="14">
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="S3" s="14">
+      <c r="R3" s="17">
+        <v>0.0325</v>
+      </c>
+      <c r="S3" s="17">
         <f t="shared" si="1"/>
-        <v>3.6500000000000005E-2</v>
-      </c>
-      <c r="T3" s="41">
+        <v>0.036500000000000005</v>
+      </c>
+      <c r="T3" s="44">
         <f t="shared" si="2"/>
-        <v>4.0000000000000036E-3</v>
-      </c>
-      <c r="U3" s="11">
+        <v>0.0040000000000000036</v>
+      </c>
+      <c r="U3" s="14">
         <v>779027.78</v>
       </c>
-      <c r="V3" s="11">
+      <c r="V3" s="14">
         <f t="shared" si="4"/>
         <v>280833.33333333331</v>
       </c>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11">
+      <c r="W3" s="14"/>
+      <c r="X3" s="14">
         <f t="shared" si="5"/>
         <v>1059861.1133333333</v>
       </c>
-      <c r="Y3" s="44">
+      <c r="Y3" s="46">
         <f t="shared" si="6"/>
         <v>561666.66666666721</v>
       </c>
-      <c r="Z3" s="11">
+      <c r="Z3" s="14">
         <f t="shared" si="7"/>
         <v>148940138.88666666</v>
       </c>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="15"/>
+      <c r="AA3" s="46"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
     </row>
-    <row r="4" spans="1:29" s="16" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A4" s="17" t="s">
+    <row r="4" s="19" customFormat="1">
+      <c r="A4" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17" t="s">
+      <c r="F4" s="20"/>
+      <c r="G4" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="18">
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="21">
         <v>5000000</v>
       </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="12">
+      <c r="K4" s="21"/>
+      <c r="L4" s="15">
         <v>43475</v>
       </c>
-      <c r="M4" s="19">
+      <c r="M4" s="22">
         <v>43838</v>
       </c>
-      <c r="N4" s="17">
+      <c r="N4" s="20">
         <v>0</v>
       </c>
-      <c r="O4" s="17">
+      <c r="O4" s="20">
         <f t="shared" si="0"/>
         <v>363</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="P4" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="Q4" s="20" t="s">
+      <c r="Q4" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="R4" s="21">
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="S4" s="21">
+      <c r="R4" s="24">
+        <v>0.0325</v>
+      </c>
+      <c r="S4" s="24">
         <f t="shared" si="1"/>
-        <v>3.8000000000000006E-2</v>
-      </c>
-      <c r="T4" s="41">
+        <v>0.038000000000000006</v>
+      </c>
+      <c r="T4" s="44">
         <f t="shared" si="2"/>
-        <v>5.5000000000000049E-3</v>
-      </c>
-      <c r="U4" s="18">
+        <v>0.0055000000000000049</v>
+      </c>
+      <c r="U4" s="21">
         <f t="shared" si="3"/>
         <v>173937.5</v>
       </c>
-      <c r="V4" s="18">
+      <c r="V4" s="21">
         <f t="shared" si="4"/>
         <v>17645.833333333332</v>
       </c>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18">
+      <c r="W4" s="21"/>
+      <c r="X4" s="21">
         <f t="shared" si="5"/>
         <v>191583.33333333334</v>
       </c>
-      <c r="Y4" s="44">
+      <c r="Y4" s="46">
         <f t="shared" si="6"/>
         <v>27729.166666666693</v>
       </c>
-      <c r="Z4" s="18">
+      <c r="Z4" s="21">
         <f t="shared" si="7"/>
         <v>4808416.666666667</v>
       </c>
-      <c r="AA4" s="44"/>
-      <c r="AB4" s="15"/>
-      <c r="AC4" s="15"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18"/>
     </row>
-    <row r="5" spans="1:29" s="16" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A5" s="10" t="s">
+    <row r="5" s="19" customFormat="1">
+      <c r="A5" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10" t="s">
+      <c r="F5" s="13"/>
+      <c r="G5" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="11">
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14">
         <v>9985000</v>
       </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="12">
+      <c r="K5" s="14"/>
+      <c r="L5" s="15">
         <v>43475</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="15">
         <v>43802</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N5" s="13">
         <v>0</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="13">
         <f t="shared" si="0"/>
         <v>327</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="P5" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="Q5" s="13" t="s">
+      <c r="Q5" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="R5" s="14">
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="S5" s="14">
+      <c r="R5" s="17">
+        <v>0.0325</v>
+      </c>
+      <c r="S5" s="17">
         <f t="shared" si="1"/>
-        <v>3.4500000000000003E-2</v>
-      </c>
-      <c r="T5" s="41">
+        <v>0.0345</v>
+      </c>
+      <c r="T5" s="44">
         <f t="shared" si="2"/>
-        <v>2.0000000000000018E-3</v>
-      </c>
-      <c r="U5" s="11">
+        <v>0.0020000000000000018</v>
+      </c>
+      <c r="U5" s="14">
         <f t="shared" si="3"/>
         <v>312904.9375</v>
       </c>
-      <c r="V5" s="11">
+      <c r="V5" s="14">
         <f>J5*Q5*O5/360</f>
         <v>0</v>
       </c>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11">
+      <c r="W5" s="14"/>
+      <c r="X5" s="14">
         <f t="shared" si="5"/>
         <v>312904.9375</v>
       </c>
-      <c r="Y5" s="44">
+      <c r="Y5" s="46">
         <f t="shared" si="6"/>
         <v>18139.416666666682</v>
       </c>
-      <c r="Z5" s="11">
+      <c r="Z5" s="14">
         <f t="shared" si="7"/>
         <v>9672095.0625</v>
       </c>
-      <c r="AA5" s="44"/>
-      <c r="AB5" s="15"/>
-      <c r="AC5" s="15"/>
+      <c r="AA5" s="46"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
     </row>
-    <row r="6" spans="1:29" s="31" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A6" s="22" t="s">
+    <row r="6" s="34" customFormat="1">
+      <c r="A6" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22" t="s">
+      <c r="F6" s="25"/>
+      <c r="G6" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="23">
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="26">
         <v>147000000</v>
       </c>
-      <c r="K6" s="23"/>
-      <c r="L6" s="12">
+      <c r="K6" s="26"/>
+      <c r="L6" s="15">
         <v>43476</v>
       </c>
-      <c r="M6" s="25">
+      <c r="M6" s="28">
         <v>43656</v>
       </c>
-      <c r="N6" s="26">
+      <c r="N6" s="29">
         <v>0</v>
       </c>
-      <c r="O6" s="26">
+      <c r="O6" s="29">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="P6" s="27" t="s">
+      <c r="P6" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="Q6" s="27" t="s">
+      <c r="Q6" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="R6" s="28">
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="S6" s="28">
+      <c r="R6" s="31">
+        <v>0.0325</v>
+      </c>
+      <c r="S6" s="31">
         <f t="shared" si="1"/>
-        <v>3.6500000000000005E-2</v>
-      </c>
-      <c r="T6" s="41">
+        <v>0.036500000000000005</v>
+      </c>
+      <c r="T6" s="44">
         <f t="shared" si="2"/>
-        <v>4.0000000000000036E-3</v>
-      </c>
-      <c r="U6" s="29">
+        <v>0.0040000000000000036</v>
+      </c>
+      <c r="U6" s="32">
         <f t="shared" si="3"/>
         <v>2535750</v>
       </c>
-      <c r="V6" s="29">
+      <c r="V6" s="32">
         <f t="shared" si="4"/>
         <v>147000</v>
       </c>
-      <c r="W6" s="29"/>
-      <c r="X6" s="29">
+      <c r="W6" s="32"/>
+      <c r="X6" s="32">
         <f t="shared" si="5"/>
         <v>2682750</v>
       </c>
-      <c r="Y6" s="44">
+      <c r="Y6" s="46">
         <f t="shared" si="6"/>
         <v>294000.00000000023</v>
       </c>
-      <c r="Z6" s="29">
+      <c r="Z6" s="32">
         <f t="shared" si="7"/>
         <v>144317250</v>
       </c>
-      <c r="AA6" s="44"/>
-      <c r="AB6" s="30"/>
-      <c r="AC6" s="30"/>
+      <c r="AA6" s="46"/>
+      <c r="AB6" s="33"/>
+      <c r="AC6" s="33"/>
     </row>
-    <row r="7" spans="1:29" s="31" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A7" s="32" t="s">
+    <row r="7" s="34" customFormat="1">
+      <c r="A7" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32" t="s">
+      <c r="F7" s="35"/>
+      <c r="G7" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="33">
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="36">
         <v>30000000</v>
       </c>
-      <c r="K7" s="33"/>
-      <c r="L7" s="12">
+      <c r="K7" s="36"/>
+      <c r="L7" s="15">
         <v>43476</v>
       </c>
-      <c r="M7" s="35">
+      <c r="M7" s="38">
         <v>43840</v>
       </c>
-      <c r="N7" s="36">
+      <c r="N7" s="39">
         <v>0</v>
       </c>
-      <c r="O7" s="36">
+      <c r="O7" s="39">
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="P7" s="37" t="s">
+      <c r="P7" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="Q7" s="37" t="s">
+      <c r="Q7" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="R7" s="38">
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="S7" s="38">
+      <c r="R7" s="41">
+        <v>0.0325</v>
+      </c>
+      <c r="S7" s="41">
         <f t="shared" si="1"/>
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="T7" s="41">
+        <v>0.042</v>
+      </c>
+      <c r="T7" s="44">
         <f t="shared" si="2"/>
-        <v>9.5000000000000015E-3</v>
-      </c>
-      <c r="U7" s="39">
+        <v>0.0095000000000000015</v>
+      </c>
+      <c r="U7" s="42">
         <f t="shared" si="3"/>
         <v>1046500.0000000001</v>
       </c>
-      <c r="V7" s="39">
+      <c r="V7" s="42">
         <f t="shared" si="4"/>
         <v>227500</v>
       </c>
-      <c r="W7" s="39"/>
-      <c r="X7" s="39">
+      <c r="W7" s="42"/>
+      <c r="X7" s="42">
         <f t="shared" si="5"/>
         <v>1274000</v>
       </c>
-      <c r="Y7" s="44">
+      <c r="Y7" s="46">
         <f t="shared" si="6"/>
         <v>288166.66666666669</v>
       </c>
-      <c r="Z7" s="39">
+      <c r="Z7" s="42">
         <f t="shared" si="7"/>
         <v>28726000</v>
       </c>
-      <c r="AA7" s="44"/>
-      <c r="AB7" s="30"/>
-      <c r="AC7" s="30"/>
+      <c r="AA7" s="46"/>
+      <c r="AB7" s="33"/>
+      <c r="AC7" s="33"/>
     </row>
-    <row r="8" spans="1:29" s="22" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A8" s="10" t="s">
+    <row r="8" s="25" customFormat="1">
+      <c r="A8" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10" t="s">
+      <c r="F8" s="13"/>
+      <c r="G8" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="14">
         <v>30000000</v>
       </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="12">
+      <c r="K8" s="14"/>
+      <c r="L8" s="15">
         <v>43481</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="15">
         <v>43844</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N8" s="13">
         <v>0</v>
       </c>
-      <c r="O8" s="10">
+      <c r="O8" s="13">
         <f t="shared" si="0"/>
         <v>363</v>
       </c>
-      <c r="P8" s="13" t="s">
+      <c r="P8" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="13" t="s">
+      <c r="Q8" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="R8" s="14">
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="S8" s="14">
+      <c r="R8" s="17">
+        <v>0.0325</v>
+      </c>
+      <c r="S8" s="17">
         <f t="shared" si="1"/>
-        <v>3.7000000000000005E-2</v>
-      </c>
-      <c r="T8" s="41">
+        <v>0.037000000000000005</v>
+      </c>
+      <c r="T8" s="44">
         <f t="shared" si="2"/>
-        <v>4.500000000000004E-3</v>
-      </c>
-      <c r="U8" s="11">
+        <v>0.004500000000000004</v>
+      </c>
+      <c r="U8" s="14">
         <f t="shared" si="3"/>
         <v>1043625.0000000001</v>
       </c>
-      <c r="V8" s="11">
+      <c r="V8" s="14">
         <f t="shared" si="4"/>
         <v>75625</v>
       </c>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11">
+      <c r="W8" s="14"/>
+      <c r="X8" s="14">
         <f t="shared" si="5"/>
         <v>1119250</v>
       </c>
-      <c r="Y8" s="44">
+      <c r="Y8" s="46">
         <f t="shared" si="6"/>
         <v>136125.00000000012</v>
       </c>
-      <c r="Z8" s="11">
+      <c r="Z8" s="14">
         <f t="shared" si="7"/>
         <v>28880750</v>
       </c>
-      <c r="AA8" s="44"/>
-      <c r="AB8" s="24"/>
-      <c r="AC8" s="24"/>
+      <c r="AA8" s="46"/>
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="27"/>
     </row>
-    <row r="9" spans="1:29" s="22" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A9" s="10" t="s">
+    <row r="9" s="25" customFormat="1">
+      <c r="A9" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10" t="s">
+      <c r="F9" s="13"/>
+      <c r="G9" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="14">
         <v>30000000</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="12">
+      <c r="K9" s="14"/>
+      <c r="L9" s="15">
         <v>43481</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="15">
         <v>43844</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="13">
         <v>0</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="13">
         <f t="shared" si="0"/>
         <v>363</v>
       </c>
-      <c r="P9" s="13" t="s">
+      <c r="P9" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="Q9" s="13" t="s">
+      <c r="Q9" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="R9" s="14">
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="S9" s="14">
+      <c r="R9" s="17">
+        <v>0.0325</v>
+      </c>
+      <c r="S9" s="17">
         <f t="shared" si="1"/>
-        <v>3.7000000000000005E-2</v>
-      </c>
-      <c r="T9" s="41">
+        <v>0.037000000000000005</v>
+      </c>
+      <c r="T9" s="44">
         <f t="shared" si="2"/>
-        <v>4.500000000000004E-3</v>
-      </c>
-      <c r="U9" s="11">
+        <v>0.004500000000000004</v>
+      </c>
+      <c r="U9" s="14">
         <f t="shared" si="3"/>
         <v>1043625.0000000001</v>
       </c>
-      <c r="V9" s="11">
+      <c r="V9" s="14">
         <f t="shared" si="4"/>
         <v>75625</v>
       </c>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11">
+      <c r="W9" s="14"/>
+      <c r="X9" s="14">
         <f t="shared" si="5"/>
         <v>1119250</v>
       </c>
-      <c r="Y9" s="44">
+      <c r="Y9" s="46">
         <f t="shared" si="6"/>
         <v>136125.00000000012</v>
       </c>
-      <c r="Z9" s="11">
+      <c r="Z9" s="14">
         <f t="shared" si="7"/>
         <v>28880750</v>
       </c>
-      <c r="AA9" s="42"/>
-      <c r="AB9" s="24"/>
-      <c r="AC9" s="24"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
     </row>
-    <row r="10" spans="1:29" s="31" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A10" s="22" t="s">
+    <row r="10" s="34" customFormat="1">
+      <c r="A10" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22" t="s">
+      <c r="F10" s="25"/>
+      <c r="G10" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="23">
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="26">
         <v>100200000</v>
       </c>
-      <c r="K10" s="23"/>
-      <c r="L10" s="12">
+      <c r="K10" s="26"/>
+      <c r="L10" s="15">
         <v>43486</v>
       </c>
-      <c r="M10" s="25">
+      <c r="M10" s="28">
         <v>43606</v>
       </c>
-      <c r="N10" s="26">
+      <c r="N10" s="29">
         <v>0</v>
       </c>
-      <c r="O10" s="26">
+      <c r="O10" s="29">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="P10" s="27" t="s">
+      <c r="P10" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="Q10" s="27" t="s">
+      <c r="Q10" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="R10" s="28">
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="S10" s="28">
+      <c r="R10" s="31">
+        <v>0.0325</v>
+      </c>
+      <c r="S10" s="31">
         <f t="shared" si="1"/>
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="T10" s="41">
+        <v>0.036</v>
+      </c>
+      <c r="T10" s="44">
         <f t="shared" si="2"/>
-        <v>3.4999999999999962E-3</v>
-      </c>
-      <c r="U10" s="29">
+        <v>0.0034999999999999962</v>
+      </c>
+      <c r="U10" s="32">
         <f t="shared" si="3"/>
         <v>1202399.9999999998</v>
       </c>
-      <c r="V10" s="29">
+      <c r="V10" s="32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W10" s="29"/>
-      <c r="X10" s="29">
+      <c r="W10" s="32"/>
+      <c r="X10" s="32">
         <f t="shared" si="5"/>
         <v>1202399.9999999998</v>
       </c>
-      <c r="Y10" s="44">
+      <c r="Y10" s="46">
         <f t="shared" si="6"/>
         <v>116899.99999999985</v>
       </c>
-      <c r="Z10" s="29">
+      <c r="Z10" s="32">
         <f t="shared" si="7"/>
         <v>98997600</v>
       </c>
-      <c r="AA10" s="44"/>
-      <c r="AB10" s="30"/>
-      <c r="AC10" s="30"/>
+      <c r="AA10" s="46"/>
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="33"/>
     </row>
-    <row r="11" spans="1:29" s="31" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A11" s="22" t="s">
+    <row r="11" s="34" customFormat="1">
+      <c r="A11" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22" t="s">
+      <c r="F11" s="25"/>
+      <c r="G11" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="23">
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="26">
         <v>180000000</v>
       </c>
-      <c r="K11" s="23"/>
-      <c r="L11" s="12">
+      <c r="K11" s="26"/>
+      <c r="L11" s="15">
         <v>43487</v>
       </c>
-      <c r="M11" s="25">
+      <c r="M11" s="28">
         <v>43846</v>
       </c>
-      <c r="N11" s="26">
+      <c r="N11" s="29">
         <v>0</v>
       </c>
-      <c r="O11" s="26">
+      <c r="O11" s="29">
         <f t="shared" si="0"/>
         <v>359</v>
       </c>
-      <c r="P11" s="27" t="s">
+      <c r="P11" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="Q11" s="27" t="s">
+      <c r="Q11" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="R11" s="28">
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="S11" s="28">
+      <c r="R11" s="31">
+        <v>0.0325</v>
+      </c>
+      <c r="S11" s="31">
         <f t="shared" si="1"/>
-        <v>3.6000000000000004E-2</v>
-      </c>
-      <c r="T11" s="41">
+        <v>0.036000000000000004</v>
+      </c>
+      <c r="T11" s="44">
         <f t="shared" si="2"/>
-        <v>3.5000000000000031E-3</v>
-      </c>
-      <c r="U11" s="29">
+        <v>0.0035000000000000031</v>
+      </c>
+      <c r="U11" s="32">
         <f t="shared" si="3"/>
         <v>6192750.0000000009</v>
       </c>
-      <c r="V11" s="29">
+      <c r="V11" s="32">
         <f t="shared" si="4"/>
         <v>269250</v>
       </c>
-      <c r="W11" s="29"/>
-      <c r="X11" s="29">
+      <c r="W11" s="32"/>
+      <c r="X11" s="32">
         <f t="shared" si="5"/>
         <v>6462000.0000000009</v>
       </c>
-      <c r="Y11" s="44">
+      <c r="Y11" s="46">
         <f t="shared" si="6"/>
         <v>628250.00000000058</v>
       </c>
-      <c r="Z11" s="29">
+      <c r="Z11" s="32">
         <f t="shared" si="7"/>
         <v>173538000</v>
       </c>
-      <c r="AA11" s="44"/>
-      <c r="AB11" s="30"/>
-      <c r="AC11" s="30"/>
+      <c r="AA11" s="46"/>
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="33"/>
     </row>
-    <row r="12" spans="1:29" s="16" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A12" s="10" t="s">
+    <row r="12" s="19" customFormat="1">
+      <c r="A12" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10" t="s">
+      <c r="F12" s="13"/>
+      <c r="G12" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11">
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="14">
         <v>100200000</v>
       </c>
-      <c r="K12" s="11"/>
-      <c r="L12" s="12">
+      <c r="K12" s="14"/>
+      <c r="L12" s="15">
         <v>43487</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="15">
         <v>43606</v>
       </c>
-      <c r="N12" s="10">
+      <c r="N12" s="13">
         <v>0</v>
       </c>
-      <c r="O12" s="10">
+      <c r="O12" s="13">
         <f t="shared" si="0"/>
         <v>119</v>
       </c>
-      <c r="P12" s="13" t="s">
+      <c r="P12" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="Q12" s="13" t="s">
+      <c r="Q12" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="R12" s="14">
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="S12" s="14">
+      <c r="R12" s="17">
+        <v>0.0325</v>
+      </c>
+      <c r="S12" s="17">
         <f t="shared" si="1"/>
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="T12" s="41">
+        <v>0.037</v>
+      </c>
+      <c r="T12" s="44">
         <f t="shared" si="2"/>
-        <v>4.4999999999999971E-3</v>
-      </c>
-      <c r="U12" s="11">
+        <v>0.0044999999999999971</v>
+      </c>
+      <c r="U12" s="14">
         <f t="shared" si="3"/>
         <v>1225501.6666666667</v>
       </c>
-      <c r="V12" s="11">
+      <c r="V12" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11">
+      <c r="W12" s="14"/>
+      <c r="X12" s="14">
         <f t="shared" si="5"/>
         <v>1225501.6666666667</v>
       </c>
-      <c r="Y12" s="44">
+      <c r="Y12" s="46">
         <f t="shared" si="6"/>
         <v>149047.49999999988</v>
       </c>
-      <c r="Z12" s="11">
+      <c r="Z12" s="14">
         <f t="shared" si="7"/>
         <v>98974498.333333328</v>
       </c>
-      <c r="AA12" s="44"/>
-      <c r="AB12" s="15"/>
-      <c r="AC12" s="15"/>
+      <c r="AA12" s="46"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="18"/>
     </row>
-    <row r="13" spans="1:29" s="31" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A13" s="22" t="s">
+    <row r="13" s="34" customFormat="1">
+      <c r="A13" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22" t="s">
+      <c r="F13" s="25"/>
+      <c r="G13" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="23">
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="26">
         <v>25500000</v>
       </c>
-      <c r="K13" s="23"/>
-      <c r="L13" s="12">
+      <c r="K13" s="26"/>
+      <c r="L13" s="15">
         <v>43487</v>
       </c>
-      <c r="M13" s="25">
+      <c r="M13" s="28">
         <v>43847</v>
       </c>
-      <c r="N13" s="26">
+      <c r="N13" s="29">
         <v>0</v>
       </c>
-      <c r="O13" s="26">
+      <c r="O13" s="29">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="P13" s="27" t="s">
+      <c r="P13" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="Q13" s="27" t="s">
+      <c r="Q13" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="R13" s="28">
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="S13" s="28">
+      <c r="R13" s="31">
+        <v>0.0325</v>
+      </c>
+      <c r="S13" s="31">
         <f t="shared" si="1"/>
-        <v>3.6500000000000005E-2</v>
-      </c>
-      <c r="T13" s="41">
+        <v>0.036500000000000005</v>
+      </c>
+      <c r="T13" s="44">
         <f t="shared" si="2"/>
-        <v>4.0000000000000036E-3</v>
-      </c>
-      <c r="U13" s="29">
+        <v>0.0040000000000000036</v>
+      </c>
+      <c r="U13" s="32">
         <f t="shared" si="3"/>
         <v>879750.00000000012</v>
       </c>
-      <c r="V13" s="29">
+      <c r="V13" s="32">
         <f t="shared" si="4"/>
         <v>51000</v>
       </c>
-      <c r="W13" s="29"/>
-      <c r="X13" s="29">
+      <c r="W13" s="32"/>
+      <c r="X13" s="32">
         <f t="shared" si="5"/>
         <v>930750.00000000012</v>
       </c>
-      <c r="Y13" s="44">
+      <c r="Y13" s="46">
         <f t="shared" si="6"/>
         <v>102000.00000000009</v>
       </c>
-      <c r="Z13" s="29">
+      <c r="Z13" s="32">
         <f t="shared" si="7"/>
         <v>24569250</v>
       </c>
-      <c r="AA13" s="42"/>
-      <c r="AB13" s="30"/>
-      <c r="AC13" s="30"/>
+      <c r="AA13" s="45"/>
+      <c r="AB13" s="33"/>
+      <c r="AC13" s="33"/>
     </row>
-    <row r="14" spans="1:29" s="32" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A14" s="10" t="s">
+    <row r="14" s="35" customFormat="1">
+      <c r="A14" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10" t="s">
+      <c r="F14" s="13"/>
+      <c r="G14" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11">
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="14">
         <v>133500000</v>
       </c>
-      <c r="K14" s="11"/>
-      <c r="L14" s="12">
+      <c r="K14" s="14"/>
+      <c r="L14" s="15">
         <v>43487</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M14" s="15">
         <v>43851</v>
       </c>
-      <c r="N14" s="10">
+      <c r="N14" s="13">
         <v>0</v>
       </c>
-      <c r="O14" s="10">
+      <c r="O14" s="13">
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="P14" s="13" t="s">
+      <c r="P14" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="Q14" s="13" t="s">
+      <c r="Q14" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="R14" s="14">
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="S14" s="14">
+      <c r="R14" s="17">
+        <v>0.0325</v>
+      </c>
+      <c r="S14" s="17">
         <f t="shared" si="1"/>
-        <v>3.6500000000000005E-2</v>
-      </c>
-      <c r="T14" s="41">
+        <v>0.036500000000000005</v>
+      </c>
+      <c r="T14" s="44">
         <f t="shared" si="2"/>
-        <v>4.0000000000000036E-3</v>
-      </c>
-      <c r="U14" s="11">
+        <v>0.0040000000000000036</v>
+      </c>
+      <c r="U14" s="14">
         <f t="shared" si="3"/>
         <v>4656925</v>
       </c>
-      <c r="V14" s="11">
+      <c r="V14" s="14">
         <f t="shared" si="4"/>
         <v>269966.66666666669</v>
       </c>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11">
+      <c r="W14" s="14"/>
+      <c r="X14" s="14">
         <f t="shared" si="5"/>
         <v>4926891.666666667</v>
       </c>
-      <c r="Y14" s="44">
+      <c r="Y14" s="46">
         <f t="shared" si="6"/>
         <v>539933.33333333384</v>
       </c>
-      <c r="Z14" s="11">
+      <c r="Z14" s="14">
         <f t="shared" si="7"/>
         <v>128573108.33333333</v>
       </c>
-      <c r="AA14" s="42"/>
-      <c r="AB14" s="34"/>
-      <c r="AC14" s="34"/>
+      <c r="AA14" s="45"/>
+      <c r="AB14" s="37"/>
+      <c r="AC14" s="37"/>
     </row>
-    <row r="15" spans="1:29" s="10" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A15" s="17" t="s">
+    <row r="15" s="13" customFormat="1">
+      <c r="A15" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17" t="s">
+      <c r="F15" s="20"/>
+      <c r="G15" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="18">
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="21">
         <v>15000000</v>
       </c>
-      <c r="K15" s="18"/>
-      <c r="L15" s="12">
+      <c r="K15" s="21"/>
+      <c r="L15" s="15">
         <v>43488</v>
       </c>
-      <c r="M15" s="19">
+      <c r="M15" s="22">
         <v>43851</v>
       </c>
-      <c r="N15" s="17">
+      <c r="N15" s="20">
         <v>0</v>
       </c>
-      <c r="O15" s="17">
+      <c r="O15" s="20">
         <f t="shared" si="0"/>
         <v>363</v>
       </c>
-      <c r="P15" s="20" t="s">
+      <c r="P15" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="Q15" s="20" t="s">
+      <c r="Q15" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="R15" s="21">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="S15" s="21">
+      <c r="R15" s="24">
+        <v>0.032</v>
+      </c>
+      <c r="S15" s="24">
         <f t="shared" si="1"/>
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="T15" s="41">
+        <v>0.042</v>
+      </c>
+      <c r="T15" s="44">
         <f t="shared" si="2"/>
-        <v>1.0000000000000002E-2</v>
-      </c>
-      <c r="U15" s="18">
+        <v>0.010000000000000002</v>
+      </c>
+      <c r="U15" s="21">
         <f t="shared" si="3"/>
         <v>514250.00000000006</v>
       </c>
-      <c r="V15" s="18">
+      <c r="V15" s="21">
         <f t="shared" si="4"/>
         <v>121000</v>
       </c>
-      <c r="W15" s="18"/>
-      <c r="X15" s="18">
+      <c r="W15" s="21"/>
+      <c r="X15" s="21">
         <f t="shared" si="5"/>
         <v>635250</v>
       </c>
-      <c r="Y15" s="44">
+      <c r="Y15" s="46">
         <f t="shared" si="6"/>
         <v>151250.00000000003</v>
       </c>
-      <c r="Z15" s="18">
+      <c r="Z15" s="21">
         <f t="shared" si="7"/>
         <v>14364750</v>
       </c>
-      <c r="AA15" s="44"/>
-      <c r="AB15" s="12"/>
-      <c r="AC15" s="12"/>
+      <c r="AA15" s="46"/>
+      <c r="AB15" s="15"/>
+      <c r="AC15" s="15"/>
     </row>
-    <row r="16" spans="1:29" s="32" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A16" s="10" t="s">
+    <row r="16" s="35" customFormat="1">
+      <c r="A16" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10" t="s">
+      <c r="F16" s="13"/>
+      <c r="G16" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="11">
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="14">
         <v>100000000</v>
       </c>
-      <c r="K16" s="11"/>
-      <c r="L16" s="12">
+      <c r="K16" s="14"/>
+      <c r="L16" s="15">
         <v>43489</v>
       </c>
-      <c r="M16" s="12">
+      <c r="M16" s="15">
         <v>43818</v>
       </c>
-      <c r="N16" s="10">
+      <c r="N16" s="13">
         <v>1</v>
       </c>
-      <c r="O16" s="10">
+      <c r="O16" s="13">
         <f t="shared" si="0"/>
         <v>330</v>
       </c>
-      <c r="P16" s="13" t="s">
+      <c r="P16" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="Q16" s="13" t="s">
+      <c r="Q16" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="R16" s="14">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="S16" s="14">
+      <c r="R16" s="17">
+        <v>0.032</v>
+      </c>
+      <c r="S16" s="17">
         <f t="shared" si="1"/>
-        <v>3.3099999999999997E-2</v>
-      </c>
-      <c r="T16" s="41">
+        <v>0.0331</v>
+      </c>
+      <c r="T16" s="44">
         <f t="shared" si="2"/>
-        <v>1.0999999999999968E-3</v>
-      </c>
-      <c r="U16" s="11">
+        <v>0.0010999999999999968</v>
+      </c>
+      <c r="U16" s="14">
         <f t="shared" si="3"/>
         <v>3034166.666666666</v>
       </c>
-      <c r="V16" s="11">
+      <c r="V16" s="14">
         <f>J16*Q16*O16/360</f>
         <v>0</v>
       </c>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11">
+      <c r="W16" s="14"/>
+      <c r="X16" s="14">
         <f t="shared" si="5"/>
         <v>3034166.666666666</v>
       </c>
-      <c r="Y16" s="44">
+      <c r="Y16" s="46">
         <f t="shared" si="6"/>
         <v>100833.33333333304</v>
       </c>
-      <c r="Z16" s="11">
+      <c r="Z16" s="14">
         <f t="shared" si="7"/>
         <v>96965833.333333328</v>
       </c>
-      <c r="AA16" s="44"/>
-      <c r="AB16" s="34"/>
-      <c r="AC16" s="34"/>
+      <c r="AA16" s="46"/>
+      <c r="AB16" s="37"/>
+      <c r="AC16" s="37"/>
     </row>
-    <row r="17" spans="1:29" s="22" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A17" s="10" t="s">
+    <row r="17" s="25" customFormat="1">
+      <c r="A17" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10" t="s">
+      <c r="F17" s="13"/>
+      <c r="G17" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="11">
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="14">
         <v>40000000</v>
       </c>
-      <c r="K17" s="11"/>
-      <c r="L17" s="12">
+      <c r="K17" s="14"/>
+      <c r="L17" s="15">
         <v>43489</v>
       </c>
-      <c r="M17" s="12">
+      <c r="M17" s="15">
         <v>43656</v>
       </c>
-      <c r="N17" s="10">
+      <c r="N17" s="13">
         <v>0</v>
       </c>
-      <c r="O17" s="10">
+      <c r="O17" s="13">
         <f t="shared" si="0"/>
         <v>167</v>
       </c>
-      <c r="P17" s="13" t="s">
+      <c r="P17" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="Q17" s="13" t="s">
+      <c r="Q17" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="R17" s="14">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="S17" s="14">
+      <c r="R17" s="17">
+        <v>0.032</v>
+      </c>
+      <c r="S17" s="17">
         <f t="shared" si="1"/>
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="T17" s="41">
+        <v>0.037</v>
+      </c>
+      <c r="T17" s="44">
         <f t="shared" si="2"/>
-        <v>4.9999999999999975E-3</v>
-      </c>
-      <c r="U17" s="11">
+        <v>0.0049999999999999975</v>
+      </c>
+      <c r="U17" s="14">
         <f t="shared" si="3"/>
         <v>686555.5555555555</v>
       </c>
-      <c r="V17" s="11">
+      <c r="V17" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11">
+      <c r="W17" s="14"/>
+      <c r="X17" s="14">
         <f t="shared" si="5"/>
         <v>686555.5555555555</v>
       </c>
-      <c r="Y17" s="44">
+      <c r="Y17" s="46">
         <f t="shared" si="6"/>
         <v>92777.777777777737</v>
       </c>
-      <c r="Z17" s="11">
+      <c r="Z17" s="14">
         <f t="shared" si="7"/>
         <v>39313444.444444448</v>
       </c>
-      <c r="AA17" s="44"/>
-      <c r="AB17" s="24"/>
-      <c r="AC17" s="24"/>
+      <c r="AA17" s="46"/>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="27"/>
     </row>
-    <row r="18" spans="1:29" s="22" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A18" s="10" t="s">
+    <row r="18" s="25" customFormat="1">
+      <c r="A18" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10" t="s">
+      <c r="F18" s="13"/>
+      <c r="G18" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="11">
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="14">
         <v>15000000</v>
       </c>
-      <c r="K18" s="11"/>
-      <c r="L18" s="12">
+      <c r="K18" s="14"/>
+      <c r="L18" s="15">
         <v>43490</v>
       </c>
-      <c r="M18" s="12">
+      <c r="M18" s="15">
         <v>43854</v>
       </c>
-      <c r="N18" s="10">
+      <c r="N18" s="13">
         <v>0</v>
       </c>
-      <c r="O18" s="10">
+      <c r="O18" s="13">
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="P18" s="13" t="s">
+      <c r="P18" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="Q18" s="13" t="s">
+      <c r="Q18" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="R18" s="14">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="S18" s="14">
+      <c r="R18" s="17">
+        <v>0.032</v>
+      </c>
+      <c r="S18" s="17">
         <f t="shared" si="1"/>
-        <v>3.6499999999999998E-2</v>
-      </c>
-      <c r="T18" s="41">
+        <v>0.0365</v>
+      </c>
+      <c r="T18" s="44">
         <f t="shared" si="2"/>
-        <v>4.4999999999999971E-3</v>
-      </c>
-      <c r="U18" s="11">
+        <v>0.0044999999999999971</v>
+      </c>
+      <c r="U18" s="14">
         <f t="shared" si="3"/>
         <v>514150</v>
       </c>
-      <c r="V18" s="11">
+      <c r="V18" s="14">
         <f t="shared" si="4"/>
         <v>39433.333333333336</v>
       </c>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11">
+      <c r="W18" s="14"/>
+      <c r="X18" s="14">
         <f t="shared" si="5"/>
         <v>553583.33333333337</v>
       </c>
-      <c r="Y18" s="44">
+      <c r="Y18" s="46">
         <f t="shared" si="6"/>
         <v>68249.999999999956</v>
       </c>
-      <c r="Z18" s="11">
+      <c r="Z18" s="14">
         <f t="shared" si="7"/>
         <v>14446416.666666666</v>
       </c>
-      <c r="AA18" s="44"/>
-      <c r="AB18" s="24"/>
-      <c r="AC18" s="24"/>
+      <c r="AA18" s="46"/>
+      <c r="AB18" s="27"/>
+      <c r="AC18" s="27"/>
     </row>
-    <row r="19" spans="1:29" s="22" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A19" s="10" t="s">
+    <row r="19" s="25" customFormat="1">
+      <c r="A19" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10" t="s">
+      <c r="F19" s="13"/>
+      <c r="G19" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="11">
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="14">
         <v>60000000</v>
       </c>
-      <c r="K19" s="11"/>
-      <c r="L19" s="12">
+      <c r="K19" s="14"/>
+      <c r="L19" s="15">
         <v>43493</v>
       </c>
-      <c r="M19" s="12">
+      <c r="M19" s="15">
         <v>43854</v>
       </c>
-      <c r="N19" s="10">
+      <c r="N19" s="13">
         <v>0</v>
       </c>
-      <c r="O19" s="10">
+      <c r="O19" s="13">
         <f t="shared" si="0"/>
         <v>361</v>
       </c>
-      <c r="P19" s="13" t="s">
+      <c r="P19" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="Q19" s="13" t="s">
+      <c r="Q19" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="R19" s="14">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="S19" s="14">
+      <c r="R19" s="17">
+        <v>0.032</v>
+      </c>
+      <c r="S19" s="17">
         <f t="shared" si="1"/>
-        <v>3.6499999999999998E-2</v>
-      </c>
-      <c r="T19" s="41">
+        <v>0.0365</v>
+      </c>
+      <c r="T19" s="44">
         <f t="shared" si="2"/>
-        <v>4.4999999999999971E-3</v>
-      </c>
-      <c r="U19" s="11">
+        <v>0.0044999999999999971</v>
+      </c>
+      <c r="U19" s="14">
         <f t="shared" si="3"/>
         <v>2039650</v>
       </c>
-      <c r="V19" s="11">
+      <c r="V19" s="14">
         <f t="shared" si="4"/>
         <v>156433.33333333334</v>
       </c>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11">
+      <c r="W19" s="14"/>
+      <c r="X19" s="14">
         <f t="shared" si="5"/>
         <v>2196083.3333333335</v>
       </c>
-      <c r="Y19" s="44">
+      <c r="Y19" s="46">
         <f t="shared" si="6"/>
         <v>270749.99999999983</v>
       </c>
-      <c r="Z19" s="11">
+      <c r="Z19" s="14">
         <f t="shared" si="7"/>
         <v>57803916.666666664</v>
       </c>
-      <c r="AA19" s="44"/>
-      <c r="AB19" s="24"/>
-      <c r="AC19" s="24"/>
+      <c r="AA19" s="46"/>
+      <c r="AB19" s="27"/>
+      <c r="AC19" s="27"/>
     </row>
-    <row r="30" spans="1:29" thickTop="1" thickBot="1">
-      <c r="I30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="42" t="s">
+    <row r="30">
+      <c r="A30" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="U30" s="2" t="s">
+      <c r="B30" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="V30" s="2" t="s">
+      <c r="C30" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="X30" s="2" t="s">
+      <c r="D30" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="Y30" s="42" t="s">
+      <c r="E30" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="Z30" s="2" t="s">
+      <c r="F30" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="AA30" s="42" t="s">
+      <c r="G30" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="AB30" s="1" t="s">
+      <c r="H30" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="AC30" s="1" t="s">
+      <c r="I30" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="R30" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="S30" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="T30" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="U30" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="V30" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="X30" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y30" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z30" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA30" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB30" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC30" s="4" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2562,5 +2618,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/Resources/Excel/FFT_all.xlsx
+++ b/Assets/Resources/Excel/FFT_all.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="111">
   <si>
     <t>系统编号</t>
   </si>
@@ -340,26 +340,24 @@
     <t>0.26%</t>
   </si>
   <si>
-    <t>FFT063019000019</t>
-  </si>
-  <si>
-    <t>KZ5002190018AA</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
     <t>8123456789.88</t>
+  </si>
+  <si>
+    <t>FFT063019000009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,6 +391,7 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -509,149 +508,146 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="6" applyFill="1" borderId="4" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+  <cellXfs count="47">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="3" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="2" applyFont="1" fillId="5" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="5" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="3" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="6" applyFill="1" borderId="4" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" applyNumberFormat="1" fontId="4" applyFont="1" fillId="6" applyFill="1" borderId="4" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="6" applyFill="1" borderId="4" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" applyNumberFormat="1" fontId="4" applyFont="1" fillId="6" applyFill="1" borderId="4" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" applyNumberFormat="1" fontId="3" applyFont="1" fillId="6" applyFill="1" borderId="4" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -671,7 +667,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -745,6 +741,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -779,6 +776,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -954,1670 +952,1715 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" thickTop="1" thickBottom="1"/>
+  <sheetFormatPr defaultRowHeight="15" thickTop="1" thickBottom="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" bestFit="1" width="9.44140625" customWidth="1" style="5"/>
-    <col min="4" max="6" bestFit="1" width="11.6640625" customWidth="1" style="5"/>
-    <col min="7" max="8" bestFit="1" width="9.44140625" customWidth="1" style="5"/>
-    <col min="10" max="10" bestFit="1" width="18.33203125" customWidth="1" style="5"/>
-    <col min="12" max="12" bestFit="1" width="10.44140625" customWidth="1" style="5"/>
-    <col min="13" max="13" bestFit="1" width="11.6640625" customWidth="1" style="5"/>
-    <col min="15" max="15" bestFit="1" width="8.44140625" customWidth="1" style="5"/>
-    <col min="16" max="16" bestFit="1" width="9.44140625" customWidth="1" style="5"/>
-    <col min="17" max="17" width="6.77734375" customWidth="1" style="5"/>
-    <col min="20" max="20" width="8.88671875" customWidth="1" style="45"/>
-    <col min="21" max="21" bestFit="1" width="16.109375" customWidth="1" style="5"/>
-    <col min="22" max="22" bestFit="1" width="13.88671875" customWidth="1" style="5"/>
-    <col min="24" max="24" bestFit="1" width="16.109375" customWidth="1" style="5"/>
-    <col min="25" max="25" bestFit="1" width="15.33203125" customWidth="1" style="45"/>
-    <col min="26" max="26" bestFit="1" width="18.33203125" customWidth="1" style="5"/>
-    <col min="27" max="27" width="8.88671875" customWidth="1" style="45"/>
+    <col min="1" max="1" width="17.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.75" style="4" customWidth="1"/>
+    <col min="20" max="20" width="8.875" style="44" customWidth="1"/>
+    <col min="21" max="21" width="16.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.375" style="44" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.875" style="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:29" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="43" t="s">
+      <c r="T1" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="W1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="X1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="47" t="s">
+      <c r="Y1" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="Z1" s="7" t="s">
         <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AB1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AC1" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" s="19" customFormat="1">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:29" s="18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="14">
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="13">
         <v>50000000</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="15">
+      <c r="K2" s="13"/>
+      <c r="L2" s="14">
         <v>43469</v>
       </c>
-      <c r="M2" s="15">
+      <c r="M2" s="14">
         <v>43627</v>
       </c>
-      <c r="N2" s="13">
+      <c r="N2" s="12">
         <v>0</v>
       </c>
-      <c r="O2" s="13">
-        <f ref="O2:O19" t="shared" si="0">M2-L2+N2</f>
+      <c r="O2" s="12">
+        <f t="shared" ref="O2:O19" si="0">M2-L2+N2</f>
         <v>158</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="17">
-        <v>0.0335</v>
-      </c>
-      <c r="S2" s="17">
-        <f ref="S2:S19" t="shared" si="1">P2+Q2</f>
-        <v>0.038</v>
-      </c>
-      <c r="T2" s="44">
-        <f ref="T2:T19" t="shared" si="2">S2-R2</f>
-        <v>0.0044999999999999971</v>
-      </c>
-      <c r="U2" s="14">
-        <f ref="U2:U19" t="shared" si="3">J2*P2*O2/360</f>
+      <c r="R2" s="16">
+        <v>3.3500000000000002E-2</v>
+      </c>
+      <c r="S2" s="16">
+        <f t="shared" ref="S2:S19" si="1">P2+Q2</f>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T2" s="43">
+        <f t="shared" ref="T2:T19" si="2">S2-R2</f>
+        <v>4.4999999999999971E-3</v>
+      </c>
+      <c r="U2" s="13">
+        <f t="shared" ref="U2:U19" si="3">J2*P2*O2/360</f>
         <v>779027.77777777764</v>
       </c>
-      <c r="V2" s="14">
-        <f ref="V2:V19" t="shared" si="4">J2*Q2*O2/360</f>
+      <c r="V2" s="13">
+        <f t="shared" ref="V2:V19" si="4">J2*Q2*O2/360</f>
         <v>54861.111111111109</v>
       </c>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14">
-        <f ref="X2:X19" t="shared" si="5">U2+V2+W2</f>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13">
+        <f t="shared" ref="X2:X19" si="5">U2+V2+W2</f>
         <v>833888.88888888876</v>
       </c>
-      <c r="Y2" s="46">
-        <f ref="Y2:Y19" t="shared" si="6">J2*T2*O2/360</f>
+      <c r="Y2" s="45">
+        <f t="shared" ref="Y2:Y19" si="6">J2*T2*O2/360</f>
         <v>98749.999999999942</v>
       </c>
-      <c r="Z2" s="14">
-        <f ref="Z2:Z19" t="shared" si="7">J2-X2</f>
+      <c r="Z2" s="13">
+        <f t="shared" ref="Z2:Z19" si="7">J2-X2</f>
         <v>49166111.111111112</v>
       </c>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
     </row>
-    <row r="3" s="19" customFormat="1">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:29" s="18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13" t="s">
+      <c r="F3" s="12"/>
+      <c r="G3" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="14">
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="13">
         <v>150000000</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="15">
+      <c r="K3" s="13"/>
+      <c r="L3" s="14">
         <v>43473</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M3" s="14">
         <v>43810</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="12">
         <v>0</v>
       </c>
-      <c r="O3" s="13">
+      <c r="O3" s="12">
         <f t="shared" si="0"/>
         <v>337</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="P3" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="Q3" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="R3" s="17">
-        <v>0.0325</v>
-      </c>
-      <c r="S3" s="17">
+      <c r="R3" s="16">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="S3" s="16">
         <f t="shared" si="1"/>
-        <v>0.036500000000000005</v>
-      </c>
-      <c r="T3" s="44">
+        <v>3.6500000000000005E-2</v>
+      </c>
+      <c r="T3" s="43">
         <f t="shared" si="2"/>
-        <v>0.0040000000000000036</v>
-      </c>
-      <c r="U3" s="14">
+        <v>4.0000000000000036E-3</v>
+      </c>
+      <c r="U3" s="13">
         <v>779027.78</v>
       </c>
-      <c r="V3" s="14">
+      <c r="V3" s="13">
         <f t="shared" si="4"/>
         <v>280833.33333333331</v>
       </c>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14">
+      <c r="W3" s="13"/>
+      <c r="X3" s="13">
         <f t="shared" si="5"/>
         <v>1059861.1133333333</v>
       </c>
-      <c r="Y3" s="46">
+      <c r="Y3" s="45">
         <f t="shared" si="6"/>
         <v>561666.66666666721</v>
       </c>
-      <c r="Z3" s="14">
+      <c r="Z3" s="13">
         <f t="shared" si="7"/>
         <v>148940138.88666666</v>
       </c>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="18"/>
-      <c r="AC3" s="18"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="17"/>
     </row>
-    <row r="4" s="19" customFormat="1">
-      <c r="A4" s="20" t="s">
+    <row r="4" spans="1:29" s="18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="21">
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="20">
         <v>5000000</v>
       </c>
-      <c r="K4" s="21"/>
-      <c r="L4" s="15">
+      <c r="K4" s="20"/>
+      <c r="L4" s="14">
         <v>43475</v>
       </c>
-      <c r="M4" s="22">
+      <c r="M4" s="21">
         <v>43838</v>
       </c>
-      <c r="N4" s="20">
+      <c r="N4" s="19">
         <v>0</v>
       </c>
-      <c r="O4" s="20">
+      <c r="O4" s="19">
         <f t="shared" si="0"/>
         <v>363</v>
       </c>
-      <c r="P4" s="23" t="s">
+      <c r="P4" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="Q4" s="23" t="s">
+      <c r="Q4" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="R4" s="24">
-        <v>0.0325</v>
-      </c>
-      <c r="S4" s="24">
+      <c r="R4" s="23">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="S4" s="23">
         <f t="shared" si="1"/>
-        <v>0.038000000000000006</v>
-      </c>
-      <c r="T4" s="44">
+        <v>3.8000000000000006E-2</v>
+      </c>
+      <c r="T4" s="43">
         <f t="shared" si="2"/>
-        <v>0.0055000000000000049</v>
-      </c>
-      <c r="U4" s="21">
+        <v>5.5000000000000049E-3</v>
+      </c>
+      <c r="U4" s="20">
         <f t="shared" si="3"/>
         <v>173937.5</v>
       </c>
-      <c r="V4" s="21">
+      <c r="V4" s="20">
         <f t="shared" si="4"/>
         <v>17645.833333333332</v>
       </c>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21">
+      <c r="W4" s="20"/>
+      <c r="X4" s="20">
         <f t="shared" si="5"/>
         <v>191583.33333333334</v>
       </c>
-      <c r="Y4" s="46">
+      <c r="Y4" s="45">
         <f t="shared" si="6"/>
         <v>27729.166666666693</v>
       </c>
-      <c r="Z4" s="21">
+      <c r="Z4" s="20">
         <f t="shared" si="7"/>
         <v>4808416.666666667</v>
       </c>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="18"/>
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17"/>
     </row>
-    <row r="5" s="19" customFormat="1">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:29" s="18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13" t="s">
+      <c r="F5" s="12"/>
+      <c r="G5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="14">
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="13">
         <v>9985000</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="15">
+      <c r="K5" s="13"/>
+      <c r="L5" s="14">
         <v>43475</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="14">
         <v>43802</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="12">
         <v>0</v>
       </c>
-      <c r="O5" s="13">
+      <c r="O5" s="12">
         <f t="shared" si="0"/>
         <v>327</v>
       </c>
-      <c r="P5" s="16" t="s">
+      <c r="P5" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="Q5" s="16" t="s">
+      <c r="Q5" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="R5" s="17">
-        <v>0.0325</v>
-      </c>
-      <c r="S5" s="17">
+      <c r="R5" s="16">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="S5" s="16">
         <f t="shared" si="1"/>
-        <v>0.0345</v>
-      </c>
-      <c r="T5" s="44">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="T5" s="43">
         <f t="shared" si="2"/>
-        <v>0.0020000000000000018</v>
-      </c>
-      <c r="U5" s="14">
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="U5" s="13">
         <f t="shared" si="3"/>
         <v>312904.9375</v>
       </c>
-      <c r="V5" s="14">
+      <c r="V5" s="13">
         <f>J5*Q5*O5/360</f>
         <v>0</v>
       </c>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14">
+      <c r="W5" s="13"/>
+      <c r="X5" s="13">
         <f t="shared" si="5"/>
         <v>312904.9375</v>
       </c>
-      <c r="Y5" s="46">
+      <c r="Y5" s="45">
         <f t="shared" si="6"/>
         <v>18139.416666666682</v>
       </c>
-      <c r="Z5" s="14">
+      <c r="Z5" s="13">
         <f t="shared" si="7"/>
         <v>9672095.0625</v>
       </c>
-      <c r="AA5" s="46"/>
-      <c r="AB5" s="18"/>
-      <c r="AC5" s="18"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="17"/>
     </row>
-    <row r="6" s="34" customFormat="1">
-      <c r="A6" s="25" t="s">
+    <row r="6" spans="1:29" s="33" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25" t="s">
+      <c r="F6" s="24"/>
+      <c r="G6" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="26">
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="25">
         <v>147000000</v>
       </c>
-      <c r="K6" s="26"/>
-      <c r="L6" s="15">
+      <c r="K6" s="25"/>
+      <c r="L6" s="14">
         <v>43476</v>
       </c>
-      <c r="M6" s="28">
+      <c r="M6" s="27">
         <v>43656</v>
       </c>
-      <c r="N6" s="29">
+      <c r="N6" s="28">
         <v>0</v>
       </c>
-      <c r="O6" s="29">
+      <c r="O6" s="28">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="P6" s="30" t="s">
+      <c r="P6" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="Q6" s="30" t="s">
+      <c r="Q6" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="R6" s="31">
-        <v>0.0325</v>
-      </c>
-      <c r="S6" s="31">
+      <c r="R6" s="30">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="S6" s="30">
         <f t="shared" si="1"/>
-        <v>0.036500000000000005</v>
-      </c>
-      <c r="T6" s="44">
+        <v>3.6500000000000005E-2</v>
+      </c>
+      <c r="T6" s="43">
         <f t="shared" si="2"/>
-        <v>0.0040000000000000036</v>
-      </c>
-      <c r="U6" s="32">
+        <v>4.0000000000000036E-3</v>
+      </c>
+      <c r="U6" s="31">
         <f t="shared" si="3"/>
         <v>2535750</v>
       </c>
-      <c r="V6" s="32">
+      <c r="V6" s="31">
         <f t="shared" si="4"/>
         <v>147000</v>
       </c>
-      <c r="W6" s="32"/>
-      <c r="X6" s="32">
+      <c r="W6" s="31"/>
+      <c r="X6" s="31">
         <f t="shared" si="5"/>
         <v>2682750</v>
       </c>
-      <c r="Y6" s="46">
+      <c r="Y6" s="45">
         <f t="shared" si="6"/>
         <v>294000.00000000023</v>
       </c>
-      <c r="Z6" s="32">
+      <c r="Z6" s="31">
         <f t="shared" si="7"/>
         <v>144317250</v>
       </c>
-      <c r="AA6" s="46"/>
-      <c r="AB6" s="33"/>
-      <c r="AC6" s="33"/>
+      <c r="AA6" s="45"/>
+      <c r="AB6" s="32"/>
+      <c r="AC6" s="32"/>
     </row>
-    <row r="7" s="34" customFormat="1">
-      <c r="A7" s="35" t="s">
+    <row r="7" spans="1:29" s="33" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35" t="s">
+      <c r="F7" s="34"/>
+      <c r="G7" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="36">
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="35">
         <v>30000000</v>
       </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="15">
+      <c r="K7" s="35"/>
+      <c r="L7" s="14">
         <v>43476</v>
       </c>
-      <c r="M7" s="38">
+      <c r="M7" s="37">
         <v>43840</v>
       </c>
-      <c r="N7" s="39">
+      <c r="N7" s="38">
         <v>0</v>
       </c>
-      <c r="O7" s="39">
+      <c r="O7" s="38">
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="P7" s="40" t="s">
+      <c r="P7" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="Q7" s="40" t="s">
+      <c r="Q7" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="R7" s="41">
-        <v>0.0325</v>
-      </c>
-      <c r="S7" s="41">
+      <c r="R7" s="40">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="S7" s="40">
         <f t="shared" si="1"/>
-        <v>0.042</v>
-      </c>
-      <c r="T7" s="44">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="T7" s="43">
         <f t="shared" si="2"/>
-        <v>0.0095000000000000015</v>
-      </c>
-      <c r="U7" s="42">
+        <v>9.5000000000000015E-3</v>
+      </c>
+      <c r="U7" s="41">
         <f t="shared" si="3"/>
         <v>1046500.0000000001</v>
       </c>
-      <c r="V7" s="42">
+      <c r="V7" s="41">
         <f t="shared" si="4"/>
         <v>227500</v>
       </c>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42">
+      <c r="W7" s="41"/>
+      <c r="X7" s="41">
         <f t="shared" si="5"/>
         <v>1274000</v>
       </c>
-      <c r="Y7" s="46">
+      <c r="Y7" s="45">
         <f t="shared" si="6"/>
         <v>288166.66666666669</v>
       </c>
-      <c r="Z7" s="42">
+      <c r="Z7" s="41">
         <f t="shared" si="7"/>
         <v>28726000</v>
       </c>
-      <c r="AA7" s="46"/>
-      <c r="AB7" s="33"/>
-      <c r="AC7" s="33"/>
+      <c r="AA7" s="45"/>
+      <c r="AB7" s="32"/>
+      <c r="AC7" s="32"/>
     </row>
-    <row r="8" s="25" customFormat="1">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:29" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13" t="s">
+      <c r="F8" s="12"/>
+      <c r="G8" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="13">
         <v>30000000</v>
       </c>
-      <c r="K8" s="14"/>
-      <c r="L8" s="15">
+      <c r="K8" s="13"/>
+      <c r="L8" s="14">
         <v>43481</v>
       </c>
-      <c r="M8" s="15">
+      <c r="M8" s="14">
         <v>43844</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="12">
         <v>0</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O8" s="12">
         <f t="shared" si="0"/>
         <v>363</v>
       </c>
-      <c r="P8" s="16" t="s">
+      <c r="P8" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="16" t="s">
+      <c r="Q8" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="R8" s="17">
-        <v>0.0325</v>
-      </c>
-      <c r="S8" s="17">
+      <c r="R8" s="16">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="S8" s="16">
         <f t="shared" si="1"/>
-        <v>0.037000000000000005</v>
-      </c>
-      <c r="T8" s="44">
+        <v>3.7000000000000005E-2</v>
+      </c>
+      <c r="T8" s="43">
         <f t="shared" si="2"/>
-        <v>0.004500000000000004</v>
-      </c>
-      <c r="U8" s="14">
+        <v>4.500000000000004E-3</v>
+      </c>
+      <c r="U8" s="13">
         <f t="shared" si="3"/>
         <v>1043625.0000000001</v>
       </c>
-      <c r="V8" s="14">
+      <c r="V8" s="13">
         <f t="shared" si="4"/>
         <v>75625</v>
       </c>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14">
+      <c r="W8" s="13"/>
+      <c r="X8" s="13">
         <f t="shared" si="5"/>
         <v>1119250</v>
       </c>
-      <c r="Y8" s="46">
+      <c r="Y8" s="45">
         <f t="shared" si="6"/>
         <v>136125.00000000012</v>
       </c>
-      <c r="Z8" s="14">
+      <c r="Z8" s="13">
         <f t="shared" si="7"/>
         <v>28880750</v>
       </c>
-      <c r="AA8" s="46"/>
-      <c r="AB8" s="27"/>
-      <c r="AC8" s="27"/>
+      <c r="AA8" s="45"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
     </row>
-    <row r="9" s="25" customFormat="1">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:29" s="24" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13" t="s">
+      <c r="F9" s="12"/>
+      <c r="G9" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="13">
         <v>30000000</v>
       </c>
-      <c r="K9" s="14"/>
-      <c r="L9" s="15">
+      <c r="K9" s="13"/>
+      <c r="L9" s="14">
         <v>43481</v>
       </c>
-      <c r="M9" s="15">
+      <c r="M9" s="14">
         <v>43844</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="12">
         <v>0</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O9" s="12">
         <f t="shared" si="0"/>
         <v>363</v>
       </c>
-      <c r="P9" s="16" t="s">
+      <c r="P9" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="Q9" s="16" t="s">
+      <c r="Q9" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="R9" s="17">
-        <v>0.0325</v>
-      </c>
-      <c r="S9" s="17">
+      <c r="R9" s="16">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="S9" s="16">
         <f t="shared" si="1"/>
-        <v>0.037000000000000005</v>
-      </c>
-      <c r="T9" s="44">
+        <v>3.7000000000000005E-2</v>
+      </c>
+      <c r="T9" s="43">
         <f t="shared" si="2"/>
-        <v>0.004500000000000004</v>
-      </c>
-      <c r="U9" s="14">
+        <v>4.500000000000004E-3</v>
+      </c>
+      <c r="U9" s="13">
         <f t="shared" si="3"/>
         <v>1043625.0000000001</v>
       </c>
-      <c r="V9" s="14">
+      <c r="V9" s="13">
         <f t="shared" si="4"/>
         <v>75625</v>
       </c>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14">
+      <c r="W9" s="13"/>
+      <c r="X9" s="13">
         <f t="shared" si="5"/>
         <v>1119250</v>
       </c>
-      <c r="Y9" s="46">
+      <c r="Y9" s="45">
         <f t="shared" si="6"/>
         <v>136125.00000000012</v>
       </c>
-      <c r="Z9" s="14">
+      <c r="Z9" s="13">
         <f t="shared" si="7"/>
         <v>28880750</v>
       </c>
-      <c r="AA9" s="45"/>
-      <c r="AB9" s="27"/>
-      <c r="AC9" s="27"/>
+      <c r="AA9" s="44"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="26"/>
     </row>
-    <row r="10" s="34" customFormat="1">
-      <c r="A10" s="25" t="s">
+    <row r="10" spans="1:29" s="24" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="13">
+        <v>30000000</v>
+      </c>
+      <c r="K10" s="13"/>
+      <c r="L10" s="14">
+        <v>43481</v>
+      </c>
+      <c r="M10" s="14">
+        <v>43844</v>
+      </c>
+      <c r="N10" s="12">
+        <v>0</v>
+      </c>
+      <c r="O10" s="12">
+        <f t="shared" ref="O10" si="8">M10-L10+N10</f>
+        <v>363</v>
+      </c>
+      <c r="P10" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="R10" s="16">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="S10" s="16">
+        <f t="shared" ref="S10" si="9">P10+Q10</f>
+        <v>3.7000000000000005E-2</v>
+      </c>
+      <c r="T10" s="43">
+        <f t="shared" ref="T10" si="10">S10-R10</f>
+        <v>4.500000000000004E-3</v>
+      </c>
+      <c r="U10" s="13">
+        <f t="shared" ref="U10" si="11">J10*P10*O10/360</f>
+        <v>1043625.0000000001</v>
+      </c>
+      <c r="V10" s="13">
+        <f t="shared" ref="V10" si="12">J10*Q10*O10/360</f>
+        <v>75625</v>
+      </c>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13">
+        <f t="shared" ref="X10" si="13">U10+V10+W10</f>
+        <v>1119250</v>
+      </c>
+      <c r="Y10" s="45">
+        <f t="shared" ref="Y10" si="14">J10*T10*O10/360</f>
+        <v>136125.00000000012</v>
+      </c>
+      <c r="Z10" s="13">
+        <f t="shared" ref="Z10" si="15">J10-X10</f>
+        <v>28880750</v>
+      </c>
+      <c r="AA10" s="44"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="26"/>
+    </row>
+    <row r="11" spans="1:29" s="33" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C11" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D11" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E11" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25" t="s">
+      <c r="F11" s="24"/>
+      <c r="G11" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="26">
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="25">
         <v>100200000</v>
       </c>
-      <c r="K10" s="26"/>
-      <c r="L10" s="15">
+      <c r="K11" s="25"/>
+      <c r="L11" s="14">
         <v>43486</v>
       </c>
-      <c r="M10" s="28">
+      <c r="M11" s="27">
         <v>43606</v>
       </c>
-      <c r="N10" s="29">
+      <c r="N11" s="28">
         <v>0</v>
       </c>
-      <c r="O10" s="29">
+      <c r="O11" s="28">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="P10" s="30" t="s">
+      <c r="P11" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="Q10" s="30" t="s">
+      <c r="Q11" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="R10" s="31">
-        <v>0.0325</v>
-      </c>
-      <c r="S10" s="31">
+      <c r="R11" s="30">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="S11" s="30">
         <f t="shared" si="1"/>
-        <v>0.036</v>
-      </c>
-      <c r="T10" s="44">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="T11" s="43">
         <f t="shared" si="2"/>
-        <v>0.0034999999999999962</v>
-      </c>
-      <c r="U10" s="32">
+        <v>3.4999999999999962E-3</v>
+      </c>
+      <c r="U11" s="31">
         <f t="shared" si="3"/>
         <v>1202399.9999999998</v>
       </c>
-      <c r="V10" s="32">
+      <c r="V11" s="31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W10" s="32"/>
-      <c r="X10" s="32">
+      <c r="W11" s="31"/>
+      <c r="X11" s="31">
         <f t="shared" si="5"/>
         <v>1202399.9999999998</v>
       </c>
-      <c r="Y10" s="46">
+      <c r="Y11" s="45">
         <f t="shared" si="6"/>
         <v>116899.99999999985</v>
       </c>
-      <c r="Z10" s="32">
+      <c r="Z11" s="31">
         <f t="shared" si="7"/>
         <v>98997600</v>
       </c>
-      <c r="AA10" s="46"/>
-      <c r="AB10" s="33"/>
-      <c r="AC10" s="33"/>
+      <c r="AA11" s="45"/>
+      <c r="AB11" s="32"/>
+      <c r="AC11" s="32"/>
     </row>
-    <row r="11" s="34" customFormat="1">
-      <c r="A11" s="25" t="s">
+    <row r="12" spans="1:29" s="33" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C12" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D12" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E12" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25" t="s">
+      <c r="F12" s="24"/>
+      <c r="G12" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="26">
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="25">
         <v>180000000</v>
       </c>
-      <c r="K11" s="26"/>
-      <c r="L11" s="15">
+      <c r="K12" s="25"/>
+      <c r="L12" s="14">
         <v>43487</v>
       </c>
-      <c r="M11" s="28">
+      <c r="M12" s="27">
         <v>43846</v>
       </c>
-      <c r="N11" s="29">
+      <c r="N12" s="28">
         <v>0</v>
       </c>
-      <c r="O11" s="29">
+      <c r="O12" s="28">
         <f t="shared" si="0"/>
         <v>359</v>
       </c>
-      <c r="P11" s="30" t="s">
+      <c r="P12" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="Q11" s="30" t="s">
+      <c r="Q12" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="R11" s="31">
-        <v>0.0325</v>
-      </c>
-      <c r="S11" s="31">
+      <c r="R12" s="30">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="S12" s="30">
         <f t="shared" si="1"/>
-        <v>0.036000000000000004</v>
-      </c>
-      <c r="T11" s="44">
+        <v>3.6000000000000004E-2</v>
+      </c>
+      <c r="T12" s="43">
         <f t="shared" si="2"/>
-        <v>0.0035000000000000031</v>
-      </c>
-      <c r="U11" s="32">
+        <v>3.5000000000000031E-3</v>
+      </c>
+      <c r="U12" s="31">
         <f t="shared" si="3"/>
         <v>6192750.0000000009</v>
       </c>
-      <c r="V11" s="32">
+      <c r="V12" s="31">
         <f t="shared" si="4"/>
         <v>269250</v>
       </c>
-      <c r="W11" s="32"/>
-      <c r="X11" s="32">
+      <c r="W12" s="31"/>
+      <c r="X12" s="31">
         <f t="shared" si="5"/>
         <v>6462000.0000000009</v>
       </c>
-      <c r="Y11" s="46">
+      <c r="Y12" s="45">
         <f t="shared" si="6"/>
         <v>628250.00000000058</v>
       </c>
-      <c r="Z11" s="32">
+      <c r="Z12" s="31">
         <f t="shared" si="7"/>
         <v>173538000</v>
       </c>
-      <c r="AA11" s="46"/>
-      <c r="AB11" s="33"/>
-      <c r="AC11" s="33"/>
+      <c r="AA12" s="45"/>
+      <c r="AB12" s="32"/>
+      <c r="AC12" s="32"/>
     </row>
-    <row r="12" s="19" customFormat="1">
-      <c r="A12" s="13" t="s">
+    <row r="13" spans="1:29" s="18" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E13" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13" t="s">
+      <c r="F13" s="12"/>
+      <c r="G13" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="14">
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13">
         <v>100200000</v>
       </c>
-      <c r="K12" s="14"/>
-      <c r="L12" s="15">
+      <c r="K13" s="13"/>
+      <c r="L13" s="14">
         <v>43487</v>
       </c>
-      <c r="M12" s="15">
+      <c r="M13" s="14">
         <v>43606</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N13" s="12">
         <v>0</v>
       </c>
-      <c r="O12" s="13">
+      <c r="O13" s="12">
         <f t="shared" si="0"/>
         <v>119</v>
       </c>
-      <c r="P12" s="16" t="s">
+      <c r="P13" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="Q12" s="16" t="s">
+      <c r="Q13" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="R12" s="17">
-        <v>0.0325</v>
-      </c>
-      <c r="S12" s="17">
+      <c r="R13" s="16">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="S13" s="16">
         <f t="shared" si="1"/>
-        <v>0.037</v>
-      </c>
-      <c r="T12" s="44">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="T13" s="43">
         <f t="shared" si="2"/>
-        <v>0.0044999999999999971</v>
-      </c>
-      <c r="U12" s="14">
+        <v>4.4999999999999971E-3</v>
+      </c>
+      <c r="U13" s="13">
         <f t="shared" si="3"/>
         <v>1225501.6666666667</v>
       </c>
-      <c r="V12" s="14">
+      <c r="V13" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14">
+      <c r="W13" s="13"/>
+      <c r="X13" s="13">
         <f t="shared" si="5"/>
         <v>1225501.6666666667</v>
       </c>
-      <c r="Y12" s="46">
+      <c r="Y13" s="45">
         <f t="shared" si="6"/>
         <v>149047.49999999988</v>
       </c>
-      <c r="Z12" s="14">
+      <c r="Z13" s="13">
         <f t="shared" si="7"/>
         <v>98974498.333333328</v>
       </c>
-      <c r="AA12" s="46"/>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="18"/>
+      <c r="AA13" s="45"/>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17"/>
     </row>
-    <row r="13" s="34" customFormat="1">
-      <c r="A13" s="25" t="s">
+    <row r="14" spans="1:29" s="33" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B14" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C14" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D14" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E14" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25" t="s">
+      <c r="F14" s="24"/>
+      <c r="G14" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="26">
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="25">
         <v>25500000</v>
       </c>
-      <c r="K13" s="26"/>
-      <c r="L13" s="15">
+      <c r="K14" s="25"/>
+      <c r="L14" s="14">
         <v>43487</v>
       </c>
-      <c r="M13" s="28">
+      <c r="M14" s="27">
         <v>43847</v>
       </c>
-      <c r="N13" s="29">
+      <c r="N14" s="28">
         <v>0</v>
       </c>
-      <c r="O13" s="29">
+      <c r="O14" s="28">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="P13" s="30" t="s">
+      <c r="P14" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="Q13" s="30" t="s">
+      <c r="Q14" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="R13" s="31">
-        <v>0.0325</v>
-      </c>
-      <c r="S13" s="31">
+      <c r="R14" s="30">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="S14" s="30">
         <f t="shared" si="1"/>
-        <v>0.036500000000000005</v>
-      </c>
-      <c r="T13" s="44">
+        <v>3.6500000000000005E-2</v>
+      </c>
+      <c r="T14" s="43">
         <f t="shared" si="2"/>
-        <v>0.0040000000000000036</v>
-      </c>
-      <c r="U13" s="32">
+        <v>4.0000000000000036E-3</v>
+      </c>
+      <c r="U14" s="31">
         <f t="shared" si="3"/>
         <v>879750.00000000012</v>
       </c>
-      <c r="V13" s="32">
+      <c r="V14" s="31">
         <f t="shared" si="4"/>
         <v>51000</v>
       </c>
-      <c r="W13" s="32"/>
-      <c r="X13" s="32">
+      <c r="W14" s="31"/>
+      <c r="X14" s="31">
         <f t="shared" si="5"/>
         <v>930750.00000000012</v>
       </c>
-      <c r="Y13" s="46">
+      <c r="Y14" s="45">
         <f t="shared" si="6"/>
         <v>102000.00000000009</v>
       </c>
-      <c r="Z13" s="32">
+      <c r="Z14" s="31">
         <f t="shared" si="7"/>
         <v>24569250</v>
       </c>
-      <c r="AA13" s="45"/>
-      <c r="AB13" s="33"/>
-      <c r="AC13" s="33"/>
+      <c r="AA14" s="44"/>
+      <c r="AB14" s="32"/>
+      <c r="AC14" s="32"/>
     </row>
-    <row r="14" s="35" customFormat="1">
-      <c r="A14" s="13" t="s">
+    <row r="15" spans="1:29" s="34" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D15" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E15" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13" t="s">
+      <c r="F15" s="12"/>
+      <c r="G15" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="14">
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13">
         <v>133500000</v>
       </c>
-      <c r="K14" s="14"/>
-      <c r="L14" s="15">
+      <c r="K15" s="13"/>
+      <c r="L15" s="14">
         <v>43487</v>
       </c>
-      <c r="M14" s="15">
+      <c r="M15" s="14">
         <v>43851</v>
       </c>
-      <c r="N14" s="13">
+      <c r="N15" s="12">
         <v>0</v>
       </c>
-      <c r="O14" s="13">
+      <c r="O15" s="12">
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="P14" s="16" t="s">
+      <c r="P15" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="Q14" s="16" t="s">
+      <c r="Q15" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="R14" s="17">
-        <v>0.0325</v>
-      </c>
-      <c r="S14" s="17">
+      <c r="R15" s="16">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="S15" s="16">
         <f t="shared" si="1"/>
-        <v>0.036500000000000005</v>
-      </c>
-      <c r="T14" s="44">
+        <v>3.6500000000000005E-2</v>
+      </c>
+      <c r="T15" s="43">
         <f t="shared" si="2"/>
-        <v>0.0040000000000000036</v>
-      </c>
-      <c r="U14" s="14">
+        <v>4.0000000000000036E-3</v>
+      </c>
+      <c r="U15" s="13">
         <f t="shared" si="3"/>
         <v>4656925</v>
       </c>
-      <c r="V14" s="14">
+      <c r="V15" s="13">
         <f t="shared" si="4"/>
         <v>269966.66666666669</v>
       </c>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14">
+      <c r="W15" s="13"/>
+      <c r="X15" s="13">
         <f t="shared" si="5"/>
         <v>4926891.666666667</v>
       </c>
-      <c r="Y14" s="46">
+      <c r="Y15" s="45">
         <f t="shared" si="6"/>
         <v>539933.33333333384</v>
       </c>
-      <c r="Z14" s="14">
+      <c r="Z15" s="13">
         <f t="shared" si="7"/>
         <v>128573108.33333333</v>
       </c>
-      <c r="AA14" s="45"/>
-      <c r="AB14" s="37"/>
-      <c r="AC14" s="37"/>
+      <c r="AA15" s="44"/>
+      <c r="AB15" s="36"/>
+      <c r="AC15" s="36"/>
     </row>
-    <row r="15" s="13" customFormat="1">
-      <c r="A15" s="20" t="s">
+    <row r="16" spans="1:29" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C16" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D16" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E16" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20" t="s">
+      <c r="F16" s="19"/>
+      <c r="G16" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="21">
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="20">
         <v>15000000</v>
       </c>
-      <c r="K15" s="21"/>
-      <c r="L15" s="15">
+      <c r="K16" s="20"/>
+      <c r="L16" s="14">
         <v>43488</v>
       </c>
-      <c r="M15" s="22">
+      <c r="M16" s="21">
         <v>43851</v>
       </c>
-      <c r="N15" s="20">
+      <c r="N16" s="19">
         <v>0</v>
       </c>
-      <c r="O15" s="20">
+      <c r="O16" s="19">
         <f t="shared" si="0"/>
         <v>363</v>
       </c>
-      <c r="P15" s="23" t="s">
+      <c r="P16" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="Q15" s="23" t="s">
+      <c r="Q16" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="R15" s="24">
-        <v>0.032</v>
-      </c>
-      <c r="S15" s="24">
+      <c r="R16" s="23">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="S16" s="23">
         <f t="shared" si="1"/>
-        <v>0.042</v>
-      </c>
-      <c r="T15" s="44">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="T16" s="43">
         <f t="shared" si="2"/>
-        <v>0.010000000000000002</v>
-      </c>
-      <c r="U15" s="21">
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="U16" s="20">
         <f t="shared" si="3"/>
         <v>514250.00000000006</v>
       </c>
-      <c r="V15" s="21">
+      <c r="V16" s="20">
         <f t="shared" si="4"/>
         <v>121000</v>
       </c>
-      <c r="W15" s="21"/>
-      <c r="X15" s="21">
+      <c r="W16" s="20"/>
+      <c r="X16" s="20">
         <f t="shared" si="5"/>
         <v>635250</v>
       </c>
-      <c r="Y15" s="46">
+      <c r="Y16" s="45">
         <f t="shared" si="6"/>
         <v>151250.00000000003</v>
       </c>
-      <c r="Z15" s="21">
+      <c r="Z16" s="20">
         <f t="shared" si="7"/>
         <v>14364750</v>
       </c>
-      <c r="AA15" s="46"/>
-      <c r="AB15" s="15"/>
-      <c r="AC15" s="15"/>
+      <c r="AA16" s="45"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
     </row>
-    <row r="16" s="35" customFormat="1">
-      <c r="A16" s="13" t="s">
+    <row r="17" spans="1:29" s="34" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D17" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E17" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13" t="s">
+      <c r="F17" s="12"/>
+      <c r="G17" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="14">
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="13">
         <v>100000000</v>
       </c>
-      <c r="K16" s="14"/>
-      <c r="L16" s="15">
+      <c r="K17" s="13"/>
+      <c r="L17" s="14">
         <v>43489</v>
       </c>
-      <c r="M16" s="15">
+      <c r="M17" s="14">
         <v>43818</v>
       </c>
-      <c r="N16" s="13">
+      <c r="N17" s="12">
         <v>1</v>
       </c>
-      <c r="O16" s="13">
+      <c r="O17" s="12">
         <f t="shared" si="0"/>
         <v>330</v>
       </c>
-      <c r="P16" s="16" t="s">
+      <c r="P17" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="Q16" s="16" t="s">
+      <c r="Q17" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="R16" s="17">
-        <v>0.032</v>
-      </c>
-      <c r="S16" s="17">
+      <c r="R17" s="16">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="S17" s="16">
         <f t="shared" si="1"/>
-        <v>0.0331</v>
-      </c>
-      <c r="T16" s="44">
+        <v>3.3099999999999997E-2</v>
+      </c>
+      <c r="T17" s="43">
         <f t="shared" si="2"/>
-        <v>0.0010999999999999968</v>
-      </c>
-      <c r="U16" s="14">
+        <v>1.0999999999999968E-3</v>
+      </c>
+      <c r="U17" s="13">
         <f t="shared" si="3"/>
         <v>3034166.666666666</v>
       </c>
-      <c r="V16" s="14">
-        <f>J16*Q16*O16/360</f>
+      <c r="V17" s="13">
+        <f>J17*Q17*O17/360</f>
         <v>0</v>
       </c>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14">
+      <c r="W17" s="13"/>
+      <c r="X17" s="13">
         <f t="shared" si="5"/>
         <v>3034166.666666666</v>
       </c>
-      <c r="Y16" s="46">
+      <c r="Y17" s="45">
         <f t="shared" si="6"/>
         <v>100833.33333333304</v>
       </c>
-      <c r="Z16" s="14">
+      <c r="Z17" s="13">
         <f t="shared" si="7"/>
         <v>96965833.333333328</v>
       </c>
-      <c r="AA16" s="46"/>
-      <c r="AB16" s="37"/>
-      <c r="AC16" s="37"/>
+      <c r="AA17" s="45"/>
+      <c r="AB17" s="36"/>
+      <c r="AC17" s="36"/>
     </row>
-    <row r="17" s="25" customFormat="1">
-      <c r="A17" s="13" t="s">
+    <row r="18" spans="1:29" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E18" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13" t="s">
+      <c r="F18" s="12"/>
+      <c r="G18" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="14">
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13">
         <v>40000000</v>
       </c>
-      <c r="K17" s="14"/>
-      <c r="L17" s="15">
+      <c r="K18" s="13"/>
+      <c r="L18" s="14">
         <v>43489</v>
       </c>
-      <c r="M17" s="15">
+      <c r="M18" s="14">
         <v>43656</v>
       </c>
-      <c r="N17" s="13">
+      <c r="N18" s="12">
         <v>0</v>
       </c>
-      <c r="O17" s="13">
+      <c r="O18" s="12">
         <f t="shared" si="0"/>
         <v>167</v>
       </c>
-      <c r="P17" s="16" t="s">
+      <c r="P18" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="Q17" s="16" t="s">
+      <c r="Q18" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="R17" s="17">
-        <v>0.032</v>
-      </c>
-      <c r="S17" s="17">
+      <c r="R18" s="16">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="S18" s="16">
         <f t="shared" si="1"/>
-        <v>0.037</v>
-      </c>
-      <c r="T17" s="44">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="T18" s="43">
         <f t="shared" si="2"/>
-        <v>0.0049999999999999975</v>
-      </c>
-      <c r="U17" s="14">
+        <v>4.9999999999999975E-3</v>
+      </c>
+      <c r="U18" s="13">
         <f t="shared" si="3"/>
         <v>686555.5555555555</v>
       </c>
-      <c r="V17" s="14">
+      <c r="V18" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14">
+      <c r="W18" s="13"/>
+      <c r="X18" s="13">
         <f t="shared" si="5"/>
         <v>686555.5555555555</v>
       </c>
-      <c r="Y17" s="46">
+      <c r="Y18" s="45">
         <f t="shared" si="6"/>
         <v>92777.777777777737</v>
       </c>
-      <c r="Z17" s="14">
+      <c r="Z18" s="13">
         <f t="shared" si="7"/>
         <v>39313444.444444448</v>
       </c>
-      <c r="AA17" s="46"/>
-      <c r="AB17" s="27"/>
-      <c r="AC17" s="27"/>
+      <c r="AA18" s="45"/>
+      <c r="AB18" s="26"/>
+      <c r="AC18" s="26"/>
     </row>
-    <row r="18" s="25" customFormat="1">
-      <c r="A18" s="13" t="s">
+    <row r="19" spans="1:29" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D19" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E19" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13" t="s">
+      <c r="F19" s="12"/>
+      <c r="G19" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="14">
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13">
         <v>15000000</v>
       </c>
-      <c r="K18" s="14"/>
-      <c r="L18" s="15">
+      <c r="K19" s="13"/>
+      <c r="L19" s="14">
         <v>43490</v>
       </c>
-      <c r="M18" s="15">
+      <c r="M19" s="14">
         <v>43854</v>
       </c>
-      <c r="N18" s="13">
+      <c r="N19" s="12">
         <v>0</v>
       </c>
-      <c r="O18" s="13">
+      <c r="O19" s="12">
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="P18" s="16" t="s">
+      <c r="P19" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="Q18" s="16" t="s">
+      <c r="Q19" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="R18" s="17">
-        <v>0.032</v>
-      </c>
-      <c r="S18" s="17">
+      <c r="R19" s="16">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="S19" s="16">
         <f t="shared" si="1"/>
-        <v>0.0365</v>
-      </c>
-      <c r="T18" s="44">
+        <v>3.6499999999999998E-2</v>
+      </c>
+      <c r="T19" s="43">
         <f t="shared" si="2"/>
-        <v>0.0044999999999999971</v>
-      </c>
-      <c r="U18" s="14">
+        <v>4.4999999999999971E-3</v>
+      </c>
+      <c r="U19" s="13">
         <f t="shared" si="3"/>
         <v>514150</v>
       </c>
-      <c r="V18" s="14">
+      <c r="V19" s="13">
         <f t="shared" si="4"/>
         <v>39433.333333333336</v>
       </c>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14">
+      <c r="W19" s="13"/>
+      <c r="X19" s="13">
         <f t="shared" si="5"/>
         <v>553583.33333333337</v>
       </c>
-      <c r="Y18" s="46">
+      <c r="Y19" s="45">
         <f t="shared" si="6"/>
         <v>68249.999999999956</v>
       </c>
-      <c r="Z18" s="14">
+      <c r="Z19" s="13">
         <f t="shared" si="7"/>
         <v>14446416.666666666</v>
       </c>
-      <c r="AA18" s="46"/>
-      <c r="AB18" s="27"/>
-      <c r="AC18" s="27"/>
+      <c r="AA19" s="45"/>
+      <c r="AB19" s="26"/>
+      <c r="AC19" s="26"/>
     </row>
-    <row r="19" s="25" customFormat="1">
-      <c r="A19" s="13" t="s">
+    <row r="20" spans="1:29" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="43"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="45"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="45"/>
+      <c r="AB20" s="26"/>
+      <c r="AC20" s="26"/>
+    </row>
+    <row r="21" spans="1:29" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="I21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="W21" s="2"/>
+    </row>
+    <row r="22" spans="1:29" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="I22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="W22" s="2"/>
+    </row>
+    <row r="31" spans="1:29" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="13" t="s">
+      <c r="B31" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I31" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E19" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="14">
-        <v>60000000</v>
-      </c>
-      <c r="K19" s="14"/>
-      <c r="L19" s="15">
-        <v>43493</v>
-      </c>
-      <c r="M19" s="15">
-        <v>43854</v>
-      </c>
-      <c r="N19" s="13">
-        <v>0</v>
-      </c>
-      <c r="O19" s="13">
-        <f t="shared" si="0"/>
-        <v>361</v>
-      </c>
-      <c r="P19" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q19" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="R19" s="17">
-        <v>0.032</v>
-      </c>
-      <c r="S19" s="17">
-        <f t="shared" si="1"/>
-        <v>0.0365</v>
-      </c>
-      <c r="T19" s="44">
-        <f t="shared" si="2"/>
-        <v>0.0044999999999999971</v>
-      </c>
-      <c r="U19" s="14">
-        <f t="shared" si="3"/>
-        <v>2039650</v>
-      </c>
-      <c r="V19" s="14">
-        <f t="shared" si="4"/>
-        <v>156433.33333333334</v>
-      </c>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14">
-        <f t="shared" si="5"/>
-        <v>2196083.3333333335</v>
-      </c>
-      <c r="Y19" s="46">
-        <f t="shared" si="6"/>
-        <v>270749.99999999983</v>
-      </c>
-      <c r="Z19" s="14">
-        <f t="shared" si="7"/>
-        <v>57803916.666666664</v>
-      </c>
-      <c r="AA19" s="46"/>
-      <c r="AB19" s="27"/>
-      <c r="AC19" s="27"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="N30" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="O30" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q30" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="R30" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="S30" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="T30" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="U30" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="V30" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="X30" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y30" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z30" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA30" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB30" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC30" s="4" t="s">
-        <v>110</v>
+      <c r="J31" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="S31" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="T31" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="U31" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="V31" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="X31" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y31" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z31" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA31" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB31" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC31" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K8:K9 I2:I7 I10:I19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I11:I20 I2:I7 K8:K10">
       <formula1>"有,无"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J8:J9 H4:H7 H2 H10:H19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H11:H20 H4:H7 H2 J8:J10">
       <formula1>" ,有,无"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
-  <headerFooter/>
 </worksheet>
 </file>